--- a/MouseAtlas_ROI_ID(已自动还原).xlsx
+++ b/MouseAtlas_ROI_ID(已自动还原).xlsx
@@ -1,22 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiali\Documents\NutBox\Rat atlas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7875" xr2:uid="{EE4E806B-F061-47EA-9BF8-E9D440F48629}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7875" tabRatio="362"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="322">
   <si>
     <t>A24a</t>
   </si>
@@ -232,154 +225,891 @@
     <t>VTT</t>
   </si>
   <si>
+    <t>AcbSh</t>
+  </si>
+  <si>
+    <t>ASt</t>
+  </si>
+  <si>
+    <t>Ce</t>
+  </si>
+  <si>
+    <t>CPu</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>HDB</t>
+  </si>
+  <si>
+    <t>ICjM</t>
+  </si>
+  <si>
+    <t>IPAC</t>
+  </si>
+  <si>
+    <t>LAcbSh</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>LPO</t>
+  </si>
+  <si>
+    <t>LSS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>SIB</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Tu</t>
+  </si>
+  <si>
+    <t>VDB</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>CA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diencephalon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROI ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROI label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The mouse brain in stereotaxic coordinates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cingulate cortex, area 24a</t>
+  </si>
+  <si>
+    <t>Cingulate cortex, area 24a'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cingulate cortex, area 24b</t>
+  </si>
+  <si>
+    <t>Cingulate cortex, area 24b’</t>
+  </si>
+  <si>
+    <t>Cingulate cortex, area 25</t>
+  </si>
+  <si>
+    <t>Cingulate cortex, area 29a</t>
+  </si>
+  <si>
+    <t>Cingulate cortex, area 29b</t>
+  </si>
+  <si>
+    <t>Cingulate cortex, area 29c</t>
+  </si>
+  <si>
+    <t>Cingulate cortex, area 30</t>
+  </si>
+  <si>
+    <t>Cingulate cortex, area 32</t>
+  </si>
+  <si>
+    <t>Amygdalopiriform  transition area</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Postpiriform  transition area</t>
+  </si>
+  <si>
+    <t>ACAv</t>
+  </si>
+  <si>
+    <t>Anterior cingulate area, ventral  part</t>
+  </si>
+  <si>
+    <t>ACAd</t>
+  </si>
+  <si>
+    <t>Anterior cingulate area, dorsal  part</t>
+  </si>
+  <si>
+    <t>Not differentiated</t>
+  </si>
+  <si>
+    <t>Not differentiated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILA</t>
+  </si>
+  <si>
+    <t>Infralimbic area</t>
+  </si>
+  <si>
+    <t>RSPv</t>
+  </si>
+  <si>
+    <t>Retrosplenial area, ventral part</t>
+  </si>
+  <si>
+    <t>RSPv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSPv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retrosplenial area, dorsal part</t>
+  </si>
+  <si>
+    <t>RSPd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prelimbic area</t>
+  </si>
+  <si>
+    <t>PL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary  auditory cortex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUDp</t>
+  </si>
+  <si>
+    <t>Primary auditory area</t>
+  </si>
+  <si>
+    <t>Secondary auditory cortex, dorsal  area</t>
+  </si>
+  <si>
+    <t>Dorsal auditory area</t>
+  </si>
+  <si>
+    <t>AUDd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secondary auditory cortex, ventral  area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ventral  auditory area</t>
+  </si>
+  <si>
+    <t>AUDv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caudomedial entorhinal cortex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entorhinal area, medial part, dorsal  zone</t>
+  </si>
+  <si>
+    <t>ENTm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Claustrum</t>
+  </si>
+  <si>
+    <t>Claustrum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLA</t>
+  </si>
+  <si>
+    <t>CLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cortex-amygdala transition zones</t>
+  </si>
+  <si>
+    <t>PIR</t>
+  </si>
+  <si>
+    <t>Piriform area</t>
+  </si>
+  <si>
+    <t>Claustrum,  dorsal part</t>
+  </si>
+  <si>
+    <t>Dorsal nucleus of the endopiriform</t>
+  </si>
+  <si>
+    <t>Endopiriform nucleus, dorsal  part</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Epd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dorsal  intermediate  entorhinal cortex</t>
+  </si>
+  <si>
+    <t>ENTl</t>
+  </si>
+  <si>
+    <t>Entorhinal area, lateral part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The allen reference atlas </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average signal intensity (%)</t>
+  </si>
+  <si>
+    <t>Dorsolateral  entorhinal cortex</t>
+  </si>
+  <si>
+    <t>Dorsolateral  orbital cortex</t>
+  </si>
+  <si>
+    <t>AId</t>
+  </si>
+  <si>
+    <t>Agranular insular area, dorsal part</t>
+  </si>
+  <si>
+    <t>Dorsal subiculum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBd</t>
+  </si>
+  <si>
+    <t>Subiculum, dorsal part</t>
+  </si>
+  <si>
+    <t>Dorsal  tenia tecta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTd</t>
+  </si>
+  <si>
+    <t>Tenia tecta, dorsal part</t>
+  </si>
+  <si>
+    <t>Ectorhinal cortex</t>
+  </si>
+  <si>
+    <t>ECT</t>
+  </si>
+  <si>
+    <t>Ectorhinal area</t>
+  </si>
+  <si>
+    <t>Frontal cortex, area 3</t>
+  </si>
+  <si>
+    <t>MOp</t>
+  </si>
+  <si>
+    <t>Primary motor area</t>
+  </si>
+  <si>
+    <t>Frontal  association cortex</t>
+  </si>
+  <si>
+    <t>FRP</t>
+  </si>
+  <si>
+    <t>Frontal pole, cerebral cortex</t>
+  </si>
+  <si>
+    <t>Intermediate nucleus of the endopiriform claustrum</t>
+  </si>
+  <si>
+    <t>Insular region, not  subdivided</t>
+  </si>
+  <si>
+    <t>Lateral orbital cortex</t>
+  </si>
+  <si>
+    <t>Orbital area, lateral part</t>
+  </si>
+  <si>
+    <t>ORBl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lateral parietal association  cortex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTLp</t>
+  </si>
+  <si>
+    <t>Posterior parietal association areas</t>
+  </si>
+  <si>
+    <t>Primary  motor cortex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secondary  motor cortex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOs</t>
+  </si>
+  <si>
+    <t>Secondary  Motor area</t>
+  </si>
+  <si>
+    <t>Medial entorhinal cortex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTm, ENTmv</t>
+  </si>
+  <si>
+    <t>Entorhinal area, medialpart, ventral  zone</t>
+  </si>
+  <si>
+    <t>Medial orbital cortex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orbital area, medial  part</t>
+  </si>
+  <si>
+    <t>ORBm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medial parietal association cortex</t>
+  </si>
+  <si>
+    <t>PTLp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parasubiculum</t>
+  </si>
+  <si>
+    <t>Parasubiculum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>Piriform cortex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Posterolateral cortical amygdaloid area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COApl </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cortical amygdalar area, posterior part,lateral zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COApm</t>
+  </si>
+  <si>
+    <t>Posteromedial cortical amygdaloid area</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cortical amygdalar area, posterior  part,media zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postsubiculum</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <r>
+      <t>Average volume (mm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perirhinal cortex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERI</t>
+  </si>
+  <si>
+    <t>Perirhinal area</t>
+  </si>
+  <si>
+    <t>Presubiculum</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>Parietal cortex, posterior area, rostral part</t>
+  </si>
+  <si>
+    <t>Rostral  amygdalopiriform area</t>
+  </si>
+  <si>
+    <t>PAA</t>
+  </si>
+  <si>
+    <t>Piriform-amygdalar area</t>
+  </si>
+  <si>
+    <t>Primary somatosensory cortex, barrel  field</t>
+  </si>
+  <si>
+    <t>Primary somatosensory cortex, dysgranular  zone</t>
+  </si>
+  <si>
+    <t>Primary somatosensory cortex, forelimb  region</t>
+  </si>
+  <si>
+    <t>Primary somatosensory cortex, hindlimb region</t>
+  </si>
+  <si>
+    <t>Primary somatosensory cortex, jaw  region</t>
+  </si>
+  <si>
+    <t>Primary somatosensory cortex, shoulder  region</t>
+  </si>
+  <si>
+    <t>Primary somatosensory cortex, trunk  region</t>
+  </si>
+  <si>
+    <t>Primary somatosensory cortex, upper lip region</t>
+  </si>
+  <si>
+    <t>Secondary  somatosensory cortex</t>
+  </si>
+  <si>
+    <t>Primary  somatosensory cortex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSp</t>
+  </si>
+  <si>
+    <t>Primary  somatosensory area</t>
+  </si>
+  <si>
+    <t>SSp-bfd</t>
+  </si>
+  <si>
+    <t>SSp-tr</t>
+  </si>
+  <si>
+    <t>Primary somatosensory area, trunk</t>
+  </si>
+  <si>
+    <t>SSp-ul</t>
+  </si>
+  <si>
+    <t>Primary somatosensory area, upper  limb</t>
+  </si>
+  <si>
+    <t>SSp-ll</t>
+  </si>
+  <si>
+    <t>Primary somatosensory area, lower  limb</t>
+  </si>
+  <si>
+    <t>SSp-m</t>
+  </si>
+  <si>
+    <t>Primary somatosensory area,  mouth</t>
+  </si>
+  <si>
+    <t>SSp-n</t>
+  </si>
+  <si>
+    <t>Primary somatosensory area, nose</t>
+  </si>
+  <si>
+    <t>SSs</t>
+  </si>
+  <si>
+    <t>Supplemental  somatosensory area</t>
+  </si>
+  <si>
+    <t>Subiculum transition area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBv</t>
+  </si>
+  <si>
+    <t>Subiculum, ventral part</t>
+  </si>
+  <si>
+    <t>Temporal  association area</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TEa</t>
+  </si>
+  <si>
+    <t>Temporal association areas</t>
+  </si>
+  <si>
+    <t>Primary  visual cortex</t>
+  </si>
+  <si>
+    <t>Primary visual cortex, binocular  area</t>
+  </si>
+  <si>
+    <t>Primary visual cortex, monocular  area</t>
+  </si>
+  <si>
+    <t>Secondary visual cortex, lateral  area</t>
+  </si>
+  <si>
+    <t>Secondary visual cortex, mediolateral  area</t>
+  </si>
+  <si>
+    <t>Secondary visual cortex, mediomedial area</t>
+  </si>
+  <si>
+    <t>VISp</t>
+  </si>
+  <si>
+    <t>Primary visual area</t>
+  </si>
+  <si>
+    <t>VISl</t>
+  </si>
+  <si>
+    <t>Lateral visual area</t>
+  </si>
+  <si>
+    <t>VISpm</t>
+  </si>
+  <si>
+    <t>Posteromedial  visual area</t>
+  </si>
+  <si>
+    <t>VISal</t>
+  </si>
+  <si>
+    <t>Anterolateral  visual area</t>
+  </si>
+  <si>
+    <t>VISam</t>
+  </si>
+  <si>
+    <t>Anteromedial  visual area</t>
+  </si>
+  <si>
+    <t>Ventral intermediate entorhinal cortex</t>
+  </si>
+  <si>
+    <t>ENTl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ventral tenia tecta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tenia tecta, ventral part</t>
+  </si>
+  <si>
+    <t>TTv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ventral  orbital cortex</t>
+  </si>
+  <si>
+    <t>Orbital area, ventrolateral part</t>
+  </si>
+  <si>
+    <t>ORBvl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Claustrum,  ventral part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ventral nucleus of the endopiriform claustrum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> EPv</t>
+  </si>
+  <si>
+    <t>Endopiriform nucleus, ventral  part</t>
+  </si>
+  <si>
     <t>AcbC</t>
-  </si>
-  <si>
-    <t>AcbSh</t>
-  </si>
-  <si>
-    <t>ASt</t>
-  </si>
-  <si>
-    <t>Ce</t>
-  </si>
-  <si>
-    <t>CPu</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>EP</t>
-  </si>
-  <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>HDB</t>
-  </si>
-  <si>
-    <t>ICjM</t>
-  </si>
-  <si>
-    <t>IPAC</t>
-  </si>
-  <si>
-    <t>LAcbSh</t>
-  </si>
-  <si>
-    <t>LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accumbens nucleus core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accumbens nucleus shell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nucleus accumbens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amygdalostriatal  transition area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caudate putamen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not differentiated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caudoputamen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central amygdaloid nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central amygdala nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extension of the amygdala</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entopeduncular nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gpi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Globus pallidus, internal segment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Globus pallidus</t>
+  </si>
+  <si>
+    <t>GPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Globus pallidus, external segment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nucleus of thw horizontal limb of the diagonal band</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diagonal band nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magna island of Calleja</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>islm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Major island of Calleja</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interstitial nucleus of the posteruir limb of the anterior commissure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fundus of the striatum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accumbens nucleus shell, lateral part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lateral hypothalamus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lateral hypothalamic area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lateral preoptic area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LPO</t>
-  </si>
-  <si>
-    <t>LSS</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>SIB</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>Tu</t>
-  </si>
-  <si>
-    <t>VDB</t>
-  </si>
-  <si>
-    <t>VP</t>
-  </si>
-  <si>
-    <t>CA1-Py</t>
-  </si>
-  <si>
-    <t>CA1-Or</t>
-  </si>
-  <si>
-    <t>CA1-Lmol</t>
-  </si>
-  <si>
-    <t>CA1-Rad</t>
-  </si>
-  <si>
-    <t>CA2</t>
-  </si>
-  <si>
-    <t>Py</t>
-  </si>
-  <si>
-    <t>CA2-Or</t>
-  </si>
-  <si>
-    <t>CA2-Rad</t>
-  </si>
-  <si>
-    <t>CA3-Py-inner</t>
-  </si>
-  <si>
-    <t>CA3-Py-outer</t>
-  </si>
-  <si>
-    <t>CA3-Or</t>
-  </si>
-  <si>
-    <t>CA3-Rad</t>
-  </si>
-  <si>
-    <t>Stratum-Lu</t>
-  </si>
-  <si>
-    <t>Dentate-Gyrus-MoDG</t>
-  </si>
-  <si>
-    <t>Dentate-Gyrus-GrDG</t>
-  </si>
-  <si>
-    <t>Dentate-Gyrus-PoDG</t>
-  </si>
-  <si>
-    <t>CA1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CA2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CA3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Diencephalon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROI ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROI label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lateral striatal stripe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not differentiated,including into FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medial septal nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Substantia innominata part B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Substantia innominata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bed nucleus of stria terminalis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Olfactory tubercle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nucleus of the vertical limb of the diagonal band</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ventral pallidus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,19 +1125,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Gulliver"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Gulliver"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -424,12 +1173,45 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,34 +1519,55 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6527A9A5-5123-434C-BAA0-CD25876D0706}">
-  <dimension ref="A2:F96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="7" max="7" width="52.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="29.5" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="12" customWidth="1"/>
+    <col min="11" max="11" width="9" style="12"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
+      <c r="F1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -783,8 +1586,23 @@
       <c r="F3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1.67</v>
+      </c>
+      <c r="K3" s="10">
+        <v>73.180000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -803,8 +1621,20 @@
       <c r="F4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.62</v>
+      </c>
+      <c r="K4" s="10">
+        <v>70.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
@@ -823,8 +1653,23 @@
       <c r="F5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1.63</v>
+      </c>
+      <c r="K5" s="10">
+        <v>71.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4</v>
       </c>
@@ -843,8 +1688,20 @@
       <c r="F6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.59</v>
+      </c>
+      <c r="K6" s="10">
+        <v>69.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>5</v>
       </c>
@@ -863,8 +1720,23 @@
       <c r="F7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="K7" s="10">
+        <v>72.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>6</v>
       </c>
@@ -883,8 +1755,23 @@
       <c r="F8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K8" s="10">
+        <v>70.709999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>7</v>
       </c>
@@ -903,8 +1790,23 @@
       <c r="F9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="K9" s="10">
+        <v>72.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>8</v>
       </c>
@@ -923,8 +1825,23 @@
       <c r="F10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="10">
+        <v>1.76</v>
+      </c>
+      <c r="K10" s="10">
+        <v>68.819999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>9</v>
       </c>
@@ -943,8 +1860,23 @@
       <c r="F11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="10">
+        <v>2.95</v>
+      </c>
+      <c r="K11" s="10">
+        <v>68.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>10</v>
       </c>
@@ -963,8 +1895,23 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1.67</v>
+      </c>
+      <c r="K12" s="10">
+        <v>71.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>11</v>
       </c>
@@ -983,8 +1930,23 @@
       <c r="F13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="K13" s="10">
+        <v>69.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1003,8 +1965,23 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1.59</v>
+      </c>
+      <c r="K14" s="10">
+        <v>69.260000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1023,8 +2000,23 @@
       <c r="F15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="K15" s="10">
+        <v>69.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1043,8 +2035,23 @@
       <c r="F16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1.74</v>
+      </c>
+      <c r="K16" s="10">
+        <v>69.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28.5">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1063,8 +2070,23 @@
       <c r="F17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" s="10">
+        <v>4.84</v>
+      </c>
+      <c r="K17" s="10">
+        <v>67.930000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1083,8 +2105,23 @@
       <c r="F18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="K18" s="10">
+        <v>67.959999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1103,8 +2140,23 @@
       <c r="F19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0.69</v>
+      </c>
+      <c r="K19" s="10">
+        <v>66.069999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1123,8 +2175,17 @@
       <c r="F20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1143,8 +2204,23 @@
       <c r="F21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="K21" s="10">
+        <v>72.069999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1163,8 +2239,23 @@
       <c r="F22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1.67</v>
+      </c>
+      <c r="K22" s="10">
+        <v>69.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1183,8 +2274,23 @@
       <c r="F23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" s="10">
+        <v>3.11</v>
+      </c>
+      <c r="K23" s="10">
+        <v>69.459999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1203,8 +2309,23 @@
       <c r="F24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K24" s="10">
+        <v>68.47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1223,8 +2344,23 @@
       <c r="F25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="K25" s="11">
+        <v>68.040000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1243,8 +2379,23 @@
       <c r="F26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="K26" s="10">
+        <v>72.69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1263,8 +2414,23 @@
       <c r="F27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J27" s="10">
+        <v>2.85</v>
+      </c>
+      <c r="K27" s="10">
+        <v>69.959999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1283,8 +2449,23 @@
       <c r="F28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="K28" s="10">
+        <v>68.59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1303,8 +2484,23 @@
       <c r="F29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29" s="10">
+        <v>4.54</v>
+      </c>
+      <c r="K29" s="10">
+        <v>68.459999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1323,8 +2519,14 @@
       <c r="F30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1343,8 +2545,14 @@
       <c r="F31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1363,8 +2571,23 @@
       <c r="F32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J32" s="10">
+        <v>2.44</v>
+      </c>
+      <c r="K32" s="10">
+        <v>67.78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1383,8 +2606,23 @@
       <c r="F33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J33" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K33" s="10">
+        <v>69.22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1403,8 +2641,23 @@
       <c r="F34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J34" s="10">
+        <v>6.68</v>
+      </c>
+      <c r="K34" s="10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1423,8 +2676,23 @@
       <c r="F35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J35" s="10">
+        <v>6.52</v>
+      </c>
+      <c r="K35" s="10">
+        <v>69.09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="28.5">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1443,8 +2711,23 @@
       <c r="F36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K36" s="10">
+        <v>70.650000000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1463,8 +2746,23 @@
       <c r="F37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="J37" s="10">
+        <v>1.37</v>
+      </c>
+      <c r="K37" s="10">
+        <v>70.989999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1483,8 +2781,23 @@
       <c r="F38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J38" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="K38" s="10">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1503,8 +2816,23 @@
       <c r="F39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="J39" s="11">
+        <v>1.42</v>
+      </c>
+      <c r="K39" s="11">
+        <v>70.069999999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1523,8 +2851,23 @@
       <c r="F40" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J40" s="10">
+        <v>8.92</v>
+      </c>
+      <c r="K40" s="10">
+        <v>71.150000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="28.5">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1543,8 +2886,23 @@
       <c r="F41" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="K41" s="10">
+        <v>67.67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="28.5">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1563,8 +2921,23 @@
       <c r="F42" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J42" s="10">
+        <v>1.08</v>
+      </c>
+      <c r="K42" s="10">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1583,8 +2956,23 @@
       <c r="F43" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="J43" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="K43" s="11">
+        <v>69.17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1603,8 +2991,23 @@
       <c r="F44" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J44" s="10">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="K44" s="10">
+        <v>69.28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1623,8 +3026,23 @@
       <c r="F45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="J45" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="K45" s="11">
+        <v>70.040000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1643,8 +3061,23 @@
       <c r="F46" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J46" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="K46" s="10">
+        <v>68.86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1663,8 +3096,23 @@
       <c r="F47" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="J47" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="K47" s="10">
+        <v>67.48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1683,8 +3131,23 @@
       <c r="F48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J48" s="10">
+        <v>3.82</v>
+      </c>
+      <c r="K48" s="10">
+        <v>68.58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="28.5">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1703,8 +3166,23 @@
       <c r="F49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J49" s="10">
+        <v>9.11</v>
+      </c>
+      <c r="K49" s="10">
+        <v>68.41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="28.5">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1723,8 +3201,23 @@
       <c r="F50" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J50" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="K50" s="10">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="28.5">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1743,8 +3236,23 @@
       <c r="F51" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J51" s="10">
+        <v>3.96</v>
+      </c>
+      <c r="K51" s="10">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="28.5">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1763,8 +3271,23 @@
       <c r="F52" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J52" s="10">
+        <v>2.79</v>
+      </c>
+      <c r="K52" s="10">
+        <v>68.53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="28.5">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1783,8 +3306,23 @@
       <c r="F53" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="J53" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="K53" s="10">
+        <v>68.37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="28.5">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1803,8 +3341,23 @@
       <c r="F54" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J54" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="K54" s="10">
+        <v>68.61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="28.5">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1823,8 +3376,23 @@
       <c r="F55" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J55" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="K55" s="10">
+        <v>68.930000000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="28.5">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1843,8 +3411,23 @@
       <c r="F56" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="J56" s="10">
+        <v>4.58</v>
+      </c>
+      <c r="K56" s="10">
+        <v>68.91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1863,8 +3446,23 @@
       <c r="F57" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="J57" s="10">
+        <v>6.11</v>
+      </c>
+      <c r="K57" s="10">
+        <v>69.12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1883,8 +3481,23 @@
       <c r="F58" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="J58" s="11">
+        <v>2.08</v>
+      </c>
+      <c r="K58" s="11">
+        <v>67.83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1903,8 +3516,23 @@
       <c r="F59" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="J59" s="10">
+        <v>2.84</v>
+      </c>
+      <c r="K59" s="10">
+        <v>70.63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1923,8 +3551,23 @@
       <c r="F60" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="J60" s="10">
+        <v>2.63</v>
+      </c>
+      <c r="K60" s="10">
+        <v>70.290000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1943,8 +3586,23 @@
       <c r="F61" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="J61" s="10">
+        <v>2.35</v>
+      </c>
+      <c r="K61" s="10">
+        <v>69.61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1963,8 +3621,23 @@
       <c r="F62" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="J62" s="10">
+        <v>2.16</v>
+      </c>
+      <c r="K62" s="10">
+        <v>68.66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1983,8 +3656,23 @@
       <c r="F63" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J63" s="10">
+        <v>3.02</v>
+      </c>
+      <c r="K63" s="10">
+        <v>70.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="28.5">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2003,8 +3691,23 @@
       <c r="F64" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="J64" s="10">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K64" s="10">
+        <v>68.78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="28.5">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2023,8 +3726,23 @@
       <c r="F65" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J65" s="10">
+        <v>1.93</v>
+      </c>
+      <c r="K65" s="10">
+        <v>69.19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2043,8 +3761,23 @@
       <c r="F66" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J66" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="K66" s="10">
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2063,8 +3796,23 @@
       <c r="F67" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="J67" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="K67" s="10">
+        <v>70.23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2083,8 +3831,23 @@
       <c r="F68" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J68" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="K68" s="10">
+        <v>70.209999999999994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2103,8 +3866,23 @@
       <c r="F69" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J69" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K69" s="10">
+        <v>68.95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2123,8 +3901,23 @@
       <c r="F70" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="J70" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="K70" s="10">
+        <v>72.55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2141,10 +3934,19 @@
         <v>148</v>
       </c>
       <c r="F71" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2161,10 +3963,19 @@
         <v>144</v>
       </c>
       <c r="F72" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2181,10 +3992,19 @@
         <v>151</v>
       </c>
       <c r="F73" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2201,10 +4021,19 @@
         <v>171</v>
       </c>
       <c r="F74" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2221,10 +4050,19 @@
         <v>110</v>
       </c>
       <c r="F75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2241,10 +4079,16 @@
         <v>137</v>
       </c>
       <c r="F76" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2261,10 +4105,19 @@
         <v>129</v>
       </c>
       <c r="F77" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2281,10 +4134,19 @@
         <v>194</v>
       </c>
       <c r="F78" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2301,10 +4163,19 @@
         <v>218</v>
       </c>
       <c r="F79" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2321,10 +4192,19 @@
         <v>145</v>
       </c>
       <c r="F80" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2341,10 +4221,19 @@
         <v>102</v>
       </c>
       <c r="F81" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2361,10 +4250,19 @@
         <v>144</v>
       </c>
       <c r="F82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2381,10 +4279,19 @@
         <v>140</v>
       </c>
       <c r="F83" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2401,10 +4308,19 @@
         <v>144</v>
       </c>
       <c r="F84" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2421,10 +4337,19 @@
         <v>189</v>
       </c>
       <c r="F85" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2441,10 +4366,19 @@
         <v>106</v>
       </c>
       <c r="F86" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2461,10 +4395,19 @@
         <v>129</v>
       </c>
       <c r="F87" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2481,10 +4424,19 @@
         <v>159</v>
       </c>
       <c r="F88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2501,10 +4453,19 @@
         <v>219</v>
       </c>
       <c r="F89" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2521,10 +4482,19 @@
         <v>111</v>
       </c>
       <c r="F90" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2541,10 +4511,19 @@
         <v>196</v>
       </c>
       <c r="F91" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2552,10 +4531,10 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2563,10 +4542,10 @@
         <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2574,10 +4553,10 @@
         <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2585,10 +4564,10 @@
         <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2596,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2604,1276 +4583,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14D97D8-12A4-4FCF-A04D-D5A2AEACF0ED}">
-  <dimension ref="A1:C121"/>
-  <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>106</v>
-      </c>
-      <c r="C1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>106</v>
-      </c>
-      <c r="C2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>116</v>
-      </c>
-      <c r="C3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>116</v>
-      </c>
-      <c r="C4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>188</v>
-      </c>
-      <c r="C5">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>152</v>
-      </c>
-      <c r="C6">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>198</v>
-      </c>
-      <c r="C7">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>109</v>
-      </c>
-      <c r="C8">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>204</v>
-      </c>
-      <c r="C9">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>167</v>
-      </c>
-      <c r="C10">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>129</v>
-      </c>
-      <c r="C11">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>220</v>
-      </c>
-      <c r="C12">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>173</v>
-      </c>
-      <c r="C13">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>153</v>
-      </c>
-      <c r="C14">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>150</v>
-      </c>
-      <c r="C15">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>199</v>
-      </c>
-      <c r="C16">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>185</v>
-      </c>
-      <c r="C17">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>211</v>
-      </c>
-      <c r="C18">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>201</v>
-      </c>
-      <c r="C19">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>147</v>
-      </c>
-      <c r="C20">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>186</v>
-      </c>
-      <c r="C21">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>105</v>
-      </c>
-      <c r="C22">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>225</v>
-      </c>
-      <c r="C23">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>198</v>
-      </c>
-      <c r="C24">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>193</v>
-      </c>
-      <c r="C25">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>30</v>
-      </c>
-      <c r="B26">
-        <v>181</v>
-      </c>
-      <c r="C26">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>31</v>
-      </c>
-      <c r="B27">
-        <v>124</v>
-      </c>
-      <c r="C27">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>32</v>
-      </c>
-      <c r="B28">
-        <v>124</v>
-      </c>
-      <c r="C28">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>33</v>
-      </c>
-      <c r="B29">
-        <v>205</v>
-      </c>
-      <c r="C29">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>34</v>
-      </c>
-      <c r="B30">
-        <v>132</v>
-      </c>
-      <c r="C30">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>35</v>
-      </c>
-      <c r="B31" s="1">
-        <v>106</v>
-      </c>
-      <c r="C31" s="1">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>36</v>
-      </c>
-      <c r="B32">
-        <v>205</v>
-      </c>
-      <c r="C32">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>37</v>
-      </c>
-      <c r="B33">
-        <v>219</v>
-      </c>
-      <c r="C33">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>38</v>
-      </c>
-      <c r="B34">
-        <v>177</v>
-      </c>
-      <c r="C34">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>39</v>
-      </c>
-      <c r="B35">
-        <v>154</v>
-      </c>
-      <c r="C35">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>40</v>
-      </c>
-      <c r="B36">
-        <v>167</v>
-      </c>
-      <c r="C36">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>41</v>
-      </c>
-      <c r="B37">
-        <v>176</v>
-      </c>
-      <c r="C37">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>119</v>
-      </c>
-      <c r="C38">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>213</v>
-      </c>
-      <c r="C39">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>44</v>
-      </c>
-      <c r="B40">
-        <v>158</v>
-      </c>
-      <c r="C40">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>45</v>
-      </c>
-      <c r="B41">
-        <v>215</v>
-      </c>
-      <c r="C41">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>46</v>
-      </c>
-      <c r="B42">
-        <v>210</v>
-      </c>
-      <c r="C42">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>47</v>
-      </c>
-      <c r="B43">
-        <v>155</v>
-      </c>
-      <c r="C43">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>48</v>
-      </c>
-      <c r="B44">
-        <v>193</v>
-      </c>
-      <c r="C44">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>49</v>
-      </c>
-      <c r="B45">
-        <v>180</v>
-      </c>
-      <c r="C45">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>50</v>
-      </c>
-      <c r="B46">
-        <v>188</v>
-      </c>
-      <c r="C46">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>51</v>
-      </c>
-      <c r="B47">
-        <v>191</v>
-      </c>
-      <c r="C47">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>52</v>
-      </c>
-      <c r="B48">
-        <v>126</v>
-      </c>
-      <c r="C48">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>53</v>
-      </c>
-      <c r="B49">
-        <v>190</v>
-      </c>
-      <c r="C49">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>54</v>
-      </c>
-      <c r="B50">
-        <v>115</v>
-      </c>
-      <c r="C50">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>55</v>
-      </c>
-      <c r="B51">
-        <v>215</v>
-      </c>
-      <c r="C51">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>56</v>
-      </c>
-      <c r="B52">
-        <v>144</v>
-      </c>
-      <c r="C52">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>57</v>
-      </c>
-      <c r="B53">
-        <v>191</v>
-      </c>
-      <c r="C53">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>58</v>
-      </c>
-      <c r="B54">
-        <v>183</v>
-      </c>
-      <c r="C54">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>59</v>
-      </c>
-      <c r="B55">
-        <v>112</v>
-      </c>
-      <c r="C55">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>60</v>
-      </c>
-      <c r="B56">
-        <v>225</v>
-      </c>
-      <c r="C56">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>61</v>
-      </c>
-      <c r="B57">
-        <v>151</v>
-      </c>
-      <c r="C57">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>62</v>
-      </c>
-      <c r="B58">
-        <v>118</v>
-      </c>
-      <c r="C58">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>63</v>
-      </c>
-      <c r="B59">
-        <v>166</v>
-      </c>
-      <c r="C59">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>64</v>
-      </c>
-      <c r="B60">
-        <v>180</v>
-      </c>
-      <c r="C60">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>65</v>
-      </c>
-      <c r="B61">
-        <v>163</v>
-      </c>
-      <c r="C61">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>66</v>
-      </c>
-      <c r="B62">
-        <v>218</v>
-      </c>
-      <c r="C62">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>67</v>
-      </c>
-      <c r="B63">
-        <v>171</v>
-      </c>
-      <c r="C63">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>68</v>
-      </c>
-      <c r="B64">
-        <v>163</v>
-      </c>
-      <c r="C64">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>69</v>
-      </c>
-      <c r="B65">
-        <v>188</v>
-      </c>
-      <c r="C65">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>70</v>
-      </c>
-      <c r="B66">
-        <v>202</v>
-      </c>
-      <c r="C66">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>71</v>
-      </c>
-      <c r="B67">
-        <v>225</v>
-      </c>
-      <c r="C67">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>72</v>
-      </c>
-      <c r="B68">
-        <v>169</v>
-      </c>
-      <c r="C68">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>73</v>
-      </c>
-      <c r="B69">
-        <v>115</v>
-      </c>
-      <c r="C69">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71">
-        <v>191</v>
-      </c>
-      <c r="C71">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>2</v>
-      </c>
-      <c r="B72">
-        <v>138</v>
-      </c>
-      <c r="C72">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>3</v>
-      </c>
-      <c r="B73">
-        <v>149</v>
-      </c>
-      <c r="C73">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>4</v>
-      </c>
-      <c r="B74">
-        <v>214</v>
-      </c>
-      <c r="C74">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>5</v>
-      </c>
-      <c r="B75">
-        <v>209</v>
-      </c>
-      <c r="C75">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>6</v>
-      </c>
-      <c r="B76" s="1">
-        <v>157</v>
-      </c>
-      <c r="C76" s="1">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>7</v>
-      </c>
-      <c r="B77">
-        <v>115</v>
-      </c>
-      <c r="C77">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>8</v>
-      </c>
-      <c r="B78">
-        <v>167</v>
-      </c>
-      <c r="C78">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>9</v>
-      </c>
-      <c r="B79">
-        <v>208</v>
-      </c>
-      <c r="C79">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>10</v>
-      </c>
-      <c r="B80">
-        <v>178</v>
-      </c>
-      <c r="C80">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>11</v>
-      </c>
-      <c r="B81">
-        <v>127</v>
-      </c>
-      <c r="C81">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>12</v>
-      </c>
-      <c r="B82">
-        <v>191</v>
-      </c>
-      <c r="C82">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>13</v>
-      </c>
-      <c r="B83" s="1">
-        <v>120</v>
-      </c>
-      <c r="C83" s="1">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>14</v>
-      </c>
-      <c r="B84">
-        <v>120</v>
-      </c>
-      <c r="C84">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>15</v>
-      </c>
-      <c r="B85">
-        <v>164</v>
-      </c>
-      <c r="C85">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>16</v>
-      </c>
-      <c r="B86">
-        <v>157</v>
-      </c>
-      <c r="C86">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>17</v>
-      </c>
-      <c r="B87">
-        <v>109</v>
-      </c>
-      <c r="C87">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>18</v>
-      </c>
-      <c r="B88">
-        <v>225</v>
-      </c>
-      <c r="C88">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>19</v>
-      </c>
-      <c r="B89">
-        <v>216</v>
-      </c>
-      <c r="C89">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>20</v>
-      </c>
-      <c r="B90" s="1">
-        <v>219</v>
-      </c>
-      <c r="C90" s="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>21</v>
-      </c>
-      <c r="B91">
-        <v>111</v>
-      </c>
-      <c r="C91">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>22</v>
-      </c>
-      <c r="B92">
-        <v>217</v>
-      </c>
-      <c r="C92">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>23</v>
-      </c>
-      <c r="B93">
-        <v>165</v>
-      </c>
-      <c r="C93">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>24</v>
-      </c>
-      <c r="B94">
-        <v>167</v>
-      </c>
-      <c r="C94">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>25</v>
-      </c>
-      <c r="B95">
-        <v>170</v>
-      </c>
-      <c r="C95">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>26</v>
-      </c>
-      <c r="B96">
-        <v>146</v>
-      </c>
-      <c r="C96">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>27</v>
-      </c>
-      <c r="B97">
-        <v>211</v>
-      </c>
-      <c r="C97">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>28</v>
-      </c>
-      <c r="B98">
-        <v>133</v>
-      </c>
-      <c r="C98">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>29</v>
-      </c>
-      <c r="B99">
-        <v>161</v>
-      </c>
-      <c r="C99">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>30</v>
-      </c>
-      <c r="B100">
-        <v>182</v>
-      </c>
-      <c r="C100">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>31</v>
-      </c>
-      <c r="B101">
-        <v>121</v>
-      </c>
-      <c r="C101">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>32</v>
-      </c>
-      <c r="B102">
-        <v>199</v>
-      </c>
-      <c r="C102">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>33</v>
-      </c>
-      <c r="B103">
-        <v>110</v>
-      </c>
-      <c r="C103">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>34</v>
-      </c>
-      <c r="B104">
-        <v>135</v>
-      </c>
-      <c r="C104">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>14</v>
-      </c>
-      <c r="B107" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>55</v>
-      </c>
-      <c r="B108" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>34</v>
-      </c>
-      <c r="B109" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>61</v>
-      </c>
-      <c r="B110" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>12</v>
-      </c>
-      <c r="B111" t="s">
-        <v>93</v>
-      </c>
-      <c r="C111" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>51</v>
-      </c>
-      <c r="B112" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>57</v>
-      </c>
-      <c r="B113" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>119</v>
-      </c>
-      <c r="B114" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>9</v>
-      </c>
-      <c r="B115" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>21</v>
-      </c>
-      <c r="B116" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>50</v>
-      </c>
-      <c r="B117" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>18</v>
-      </c>
-      <c r="B118" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>20</v>
-      </c>
-      <c r="B119" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>8</v>
-      </c>
-      <c r="B120" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>27</v>
-      </c>
-      <c r="B121" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/MouseAtlas_ROI_ID(已自动还原).xlsx
+++ b/MouseAtlas_ROI_ID(已自动还原).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiali\Documents\tencent files\421695611\filerecv\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7875" tabRatio="362"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7875" tabRatio="362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="323">
   <si>
     <t>A24a</t>
   </si>
@@ -1104,11 +1109,15 @@
     <t>SI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ROI ID in combined atlas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1519,55 +1528,59 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="7" max="7" width="52.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9" style="3"/>
-    <col min="9" max="9" width="29.5" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.25" style="12" customWidth="1"/>
-    <col min="11" max="11" width="9" style="12"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="52.75" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3"/>
+    <col min="10" max="10" width="29.5" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="G1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
+    <row r="2" spans="1:12" ht="16.5">
       <c r="A2" t="s">
         <v>93</v>
       </c>
       <c r="B2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" t="s">
         <v>94</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1575,34 +1588,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>106</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>114</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>188</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="10">
+      <c r="K3" s="10">
         <v>1.67</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="10">
         <v>73.180000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1610,31 +1626,34 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>106</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>114</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>158</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="J4" s="10">
+      <c r="K4" s="10">
         <v>0.62</v>
       </c>
-      <c r="K4" s="10">
+      <c r="L4" s="10">
         <v>70.77</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1642,34 +1661,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>116</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>107</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>219</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K5" s="10">
         <v>1.63</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>71.11</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1677,31 +1699,34 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>116</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>107</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>189</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="10">
+      <c r="K6" s="10">
         <v>0.59</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="10">
         <v>69.64</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1709,34 +1734,37 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
         <v>188</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>119</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>122</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="J7" s="10">
+      <c r="K7" s="10">
         <v>0.38</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="10">
         <v>72.92</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1744,34 +1772,37 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
         <v>152</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>216</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>222</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="10">
+      <c r="K8" s="10">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K8" s="10">
+      <c r="L8" s="10">
         <v>70.709999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1779,34 +1810,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
         <v>198</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>133</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>130</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J9" s="10">
+      <c r="K9" s="10">
         <v>0.45</v>
       </c>
-      <c r="K9" s="10">
+      <c r="L9" s="10">
         <v>72.55</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1814,34 +1848,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
         <v>109</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>112</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>185</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J10" s="10">
+      <c r="K10" s="10">
         <v>1.76</v>
       </c>
-      <c r="K10" s="10">
+      <c r="L10" s="10">
         <v>68.819999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1849,34 +1886,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
         <v>204</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>225</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>152</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="10">
+      <c r="K11" s="10">
         <v>2.95</v>
       </c>
-      <c r="K11" s="10">
+      <c r="L11" s="10">
         <v>68.78</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1884,34 +1924,37 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
         <v>167</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>105</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>134</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J12" s="10">
+      <c r="K12" s="10">
         <v>1.67</v>
       </c>
-      <c r="K12" s="10">
+      <c r="L12" s="10">
         <v>71.52</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1919,34 +1962,37 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
         <v>129</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>114</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>143</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="10">
+      <c r="K13" s="10">
         <v>0.83</v>
       </c>
-      <c r="K13" s="10">
+      <c r="L13" s="10">
         <v>69.64</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1954,34 +2000,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
         <v>220</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>191</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>140</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="J14" s="10">
+      <c r="K14" s="10">
         <v>1.59</v>
       </c>
-      <c r="K14" s="10">
+      <c r="L14" s="10">
         <v>69.260000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1989,34 +2038,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
         <v>173</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>165</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>190</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J15" s="10">
+      <c r="K15" s="10">
         <v>1.75</v>
       </c>
-      <c r="K15" s="10">
+      <c r="L15" s="10">
         <v>69.97</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2024,34 +2076,37 @@
         <v>14</v>
       </c>
       <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
         <v>153</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>112</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>189</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="10">
+      <c r="K16" s="10">
         <v>1.74</v>
       </c>
-      <c r="K16" s="10">
+      <c r="L16" s="10">
         <v>69.12</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="28.5">
+    <row r="17" spans="1:12" ht="28.5">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2059,34 +2114,37 @@
         <v>16</v>
       </c>
       <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
         <v>150</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>129</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>163</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="J17" s="10">
+      <c r="K17" s="10">
         <v>4.84</v>
       </c>
-      <c r="K17" s="10">
+      <c r="L17" s="10">
         <v>67.930000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2094,34 +2152,37 @@
         <v>18</v>
       </c>
       <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
         <v>199</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>175</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>200</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="J18" s="10">
+      <c r="K18" s="10">
         <v>0.2</v>
       </c>
-      <c r="K18" s="10">
+      <c r="L18" s="10">
         <v>67.959999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2129,34 +2190,37 @@
         <v>19</v>
       </c>
       <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
         <v>185</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>171</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>221</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J19" s="10">
+      <c r="K19" s="10">
         <v>0.69</v>
       </c>
-      <c r="K19" s="10">
+      <c r="L19" s="10">
         <v>66.069999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2164,28 +2228,31 @@
         <v>20</v>
       </c>
       <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
         <v>211</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>156</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>205</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2193,34 +2260,37 @@
         <v>21</v>
       </c>
       <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
         <v>201</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>202</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>152</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J21" s="10">
+      <c r="K21" s="10">
         <v>0.21</v>
       </c>
-      <c r="K21" s="10">
+      <c r="L21" s="10">
         <v>72.069999999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2228,34 +2298,37 @@
         <v>24</v>
       </c>
       <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="D22">
         <v>147</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>159</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>108</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="J22" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J22" s="10">
+      <c r="K22" s="10">
         <v>1.67</v>
       </c>
-      <c r="K22" s="10">
+      <c r="L22" s="10">
         <v>69.16</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2263,34 +2336,37 @@
         <v>25</v>
       </c>
       <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
         <v>186</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>150</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>118</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="J23" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="10">
+      <c r="K23" s="10">
         <v>3.11</v>
       </c>
-      <c r="K23" s="10">
+      <c r="L23" s="10">
         <v>69.459999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2298,34 +2374,37 @@
         <v>26</v>
       </c>
       <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
         <v>105</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>101</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>208</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="H24" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="J24" s="10">
+      <c r="K24" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K24" s="10">
+      <c r="L24" s="10">
         <v>68.47</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2333,34 +2412,37 @@
         <v>27</v>
       </c>
       <c r="C25">
+        <v>27</v>
+      </c>
+      <c r="D25">
         <v>225</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>173</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>160</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="H25" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="J25" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="J25" s="11">
+      <c r="K25" s="11">
         <v>0.74</v>
       </c>
-      <c r="K25" s="11">
+      <c r="L25" s="11">
         <v>68.040000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2368,34 +2450,37 @@
         <v>28</v>
       </c>
       <c r="C26">
+        <v>28</v>
+      </c>
+      <c r="D26">
         <v>198</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>189</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>174</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="J26" s="10">
+      <c r="K26" s="10">
         <v>0.84</v>
       </c>
-      <c r="K26" s="10">
+      <c r="L26" s="10">
         <v>72.69</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2403,34 +2488,37 @@
         <v>29</v>
       </c>
       <c r="C27">
+        <v>29</v>
+      </c>
+      <c r="D27">
         <v>193</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>223</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>190</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="H27" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="I27" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="J27" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="J27" s="10">
+      <c r="K27" s="10">
         <v>2.85</v>
       </c>
-      <c r="K27" s="10">
+      <c r="L27" s="10">
         <v>69.959999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2438,34 +2526,37 @@
         <v>31</v>
       </c>
       <c r="C28">
+        <v>31</v>
+      </c>
+      <c r="D28">
         <v>181</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>172</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>186</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="H28" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="I28" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="J28" s="10">
+      <c r="K28" s="10">
         <v>0.65</v>
       </c>
-      <c r="K28" s="10">
+      <c r="L28" s="10">
         <v>68.59</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2473,34 +2564,37 @@
         <v>32</v>
       </c>
       <c r="C29">
+        <v>32</v>
+      </c>
+      <c r="D29">
         <v>124</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>204</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>208</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="I29" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="J29" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="J29" s="10">
+      <c r="K29" s="10">
         <v>4.54</v>
       </c>
-      <c r="K29" s="10">
+      <c r="L29" s="10">
         <v>68.459999999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2508,25 +2602,28 @@
         <v>33</v>
       </c>
       <c r="C30">
+        <v>33</v>
+      </c>
+      <c r="D30">
         <v>124</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>121</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>124</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="H30" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="J30" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2534,25 +2631,28 @@
         <v>34</v>
       </c>
       <c r="C31">
+        <v>34</v>
+      </c>
+      <c r="D31">
         <v>205</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>163</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>146</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="H31" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="J31" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2560,34 +2660,37 @@
         <v>35</v>
       </c>
       <c r="C32">
+        <v>35</v>
+      </c>
+      <c r="D32">
         <v>132</v>
-      </c>
-      <c r="D32">
-        <v>205</v>
       </c>
       <c r="E32">
         <v>205</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32">
+        <v>205</v>
+      </c>
+      <c r="G32" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="H32" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="I32" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="J32" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="J32" s="10">
+      <c r="K32" s="10">
         <v>2.44</v>
       </c>
-      <c r="K32" s="10">
+      <c r="L32" s="10">
         <v>67.78</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2595,34 +2698,37 @@
         <v>37</v>
       </c>
       <c r="C33">
+        <v>37</v>
+      </c>
+      <c r="D33">
         <v>205</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>141</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>119</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="H33" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="I33" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="J33" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="J33" s="10">
+      <c r="K33" s="10">
         <v>0.3</v>
       </c>
-      <c r="K33" s="10">
+      <c r="L33" s="10">
         <v>69.22</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2630,34 +2736,37 @@
         <v>38</v>
       </c>
       <c r="C34">
+        <v>38</v>
+      </c>
+      <c r="D34">
         <v>219</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>193</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>152</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="I34" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="J34" s="10">
+      <c r="K34" s="10">
         <v>6.68</v>
       </c>
-      <c r="K34" s="10">
+      <c r="L34" s="10">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2665,34 +2774,37 @@
         <v>39</v>
       </c>
       <c r="C35">
+        <v>39</v>
+      </c>
+      <c r="D35">
         <v>177</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>218</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>169</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="H35" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="I35" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="J35" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="J35" s="10">
+      <c r="K35" s="10">
         <v>6.52</v>
       </c>
-      <c r="K35" s="10">
+      <c r="L35" s="10">
         <v>69.09</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="28.5">
+    <row r="36" spans="1:12" ht="28.5">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2700,34 +2812,37 @@
         <v>40</v>
       </c>
       <c r="C36">
+        <v>40</v>
+      </c>
+      <c r="D36">
         <v>154</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>196</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>151</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="I36" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="J36" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="J36" s="10">
+      <c r="K36" s="10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K36" s="10">
+      <c r="L36" s="10">
         <v>70.650000000000006</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2735,34 +2850,37 @@
         <v>41</v>
       </c>
       <c r="C37">
+        <v>41</v>
+      </c>
+      <c r="D37">
         <v>167</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>136</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>117</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="I37" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="J37" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="J37" s="10">
+      <c r="K37" s="10">
         <v>1.37</v>
       </c>
-      <c r="K37" s="10">
+      <c r="L37" s="10">
         <v>70.989999999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2770,34 +2888,37 @@
         <v>42</v>
       </c>
       <c r="C38">
+        <v>42</v>
+      </c>
+      <c r="D38">
         <v>176</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>143</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>198</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="H38" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="I38" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="J38" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="J38" s="10">
+      <c r="K38" s="10">
         <v>0.46</v>
       </c>
-      <c r="K38" s="10">
+      <c r="L38" s="10">
         <v>69.5</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2805,34 +2926,37 @@
         <v>43</v>
       </c>
       <c r="C39">
+        <v>43</v>
+      </c>
+      <c r="D39">
         <v>119</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>134</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>188</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="H39" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="I39" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="J39" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="J39" s="11">
+      <c r="K39" s="11">
         <v>1.42</v>
       </c>
-      <c r="K39" s="11">
+      <c r="L39" s="11">
         <v>70.069999999999993</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2840,34 +2964,37 @@
         <v>44</v>
       </c>
       <c r="C40">
+        <v>44</v>
+      </c>
+      <c r="D40">
         <v>213</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>190</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>147</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>37</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="H40" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="I40" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="J40" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J40" s="10">
+      <c r="K40" s="10">
         <v>8.92</v>
       </c>
-      <c r="K40" s="10">
+      <c r="L40" s="10">
         <v>71.150000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="28.5">
+    <row r="41" spans="1:12" ht="28.5">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2875,34 +3002,37 @@
         <v>45</v>
       </c>
       <c r="C41">
+        <v>45</v>
+      </c>
+      <c r="D41">
         <v>158</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>174</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>139</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="H41" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="I41" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="J41" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="J41" s="10">
+      <c r="K41" s="10">
         <v>0.75</v>
       </c>
-      <c r="K41" s="10">
+      <c r="L41" s="10">
         <v>67.67</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="28.5">
+    <row r="42" spans="1:12" ht="28.5">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2910,34 +3040,37 @@
         <v>46</v>
       </c>
       <c r="C42">
+        <v>46</v>
+      </c>
+      <c r="D42">
         <v>215</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>100</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>198</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="H42" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="I42" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="J42" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="J42" s="10">
+      <c r="K42" s="10">
         <v>1.08</v>
       </c>
-      <c r="K42" s="10">
+      <c r="L42" s="10">
         <v>70.2</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2945,34 +3078,37 @@
         <v>47</v>
       </c>
       <c r="C43">
+        <v>47</v>
+      </c>
+      <c r="D43">
         <v>210</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>160</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>154</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="H43" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="I43" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="J43" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J43" s="11">
+      <c r="K43" s="11">
         <v>0.64</v>
       </c>
-      <c r="K43" s="11">
+      <c r="L43" s="11">
         <v>69.17</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2980,34 +3116,37 @@
         <v>48</v>
       </c>
       <c r="C44">
+        <v>48</v>
+      </c>
+      <c r="D44">
         <v>155</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>125</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>113</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="H44" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="I44" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="J44" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="J44" s="10">
+      <c r="K44" s="10">
         <v>2.4500000000000002</v>
       </c>
-      <c r="K44" s="10">
+      <c r="L44" s="10">
         <v>69.28</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3015,34 +3154,37 @@
         <v>49</v>
       </c>
       <c r="C45">
+        <v>49</v>
+      </c>
+      <c r="D45">
         <v>193</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>118</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>186</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="H45" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="I45" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="J45" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="J45" s="11">
+      <c r="K45" s="11">
         <v>0.27</v>
       </c>
-      <c r="K45" s="11">
+      <c r="L45" s="11">
         <v>70.040000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3050,34 +3192,37 @@
         <v>50</v>
       </c>
       <c r="C46">
+        <v>50</v>
+      </c>
+      <c r="D46">
         <v>180</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>119</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>189</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="H46" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="I46" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="J46" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="J46" s="10">
+      <c r="K46" s="10">
         <v>0.12</v>
       </c>
-      <c r="K46" s="10">
+      <c r="L46" s="10">
         <v>68.86</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3085,34 +3230,37 @@
         <v>51</v>
       </c>
       <c r="C47">
+        <v>51</v>
+      </c>
+      <c r="D47">
         <v>188</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>148</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>195</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>44</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="H47" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="I47" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="J47" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="J47" s="10">
+      <c r="K47" s="10">
         <v>0.34</v>
       </c>
-      <c r="K47" s="10">
+      <c r="L47" s="10">
         <v>67.48</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3120,34 +3268,37 @@
         <v>52</v>
       </c>
       <c r="C48">
+        <v>52</v>
+      </c>
+      <c r="D48">
         <v>191</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>151</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>132</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>45</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="H48" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="I48" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="J48" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="J48" s="10">
+      <c r="K48" s="10">
         <v>3.82</v>
       </c>
-      <c r="K48" s="10">
+      <c r="L48" s="10">
         <v>68.58</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="28.5">
+    <row r="49" spans="1:12" ht="28.5">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3155,34 +3306,37 @@
         <v>53</v>
       </c>
       <c r="C49">
+        <v>53</v>
+      </c>
+      <c r="D49">
         <v>126</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>223</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>208</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>46</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="H49" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="I49" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="J49" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="J49" s="10">
+      <c r="K49" s="10">
         <v>9.11</v>
       </c>
-      <c r="K49" s="10">
+      <c r="L49" s="10">
         <v>68.41</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="28.5">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3190,34 +3344,37 @@
         <v>54</v>
       </c>
       <c r="C50">
+        <v>54</v>
+      </c>
+      <c r="D50">
         <v>190</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>193</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>172</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>47</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="H50" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="I50" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="J50" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="J50" s="10">
+      <c r="K50" s="10">
         <v>0.38</v>
       </c>
-      <c r="K50" s="10">
+      <c r="L50" s="10">
         <v>68.8</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="28.5">
+    <row r="51" spans="1:12" ht="28.5">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3225,34 +3382,37 @@
         <v>55</v>
       </c>
       <c r="C51">
+        <v>55</v>
+      </c>
+      <c r="D51">
         <v>115</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>108</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>212</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>48</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="H51" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="I51" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="J51" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="J51" s="10">
+      <c r="K51" s="10">
         <v>3.96</v>
       </c>
-      <c r="K51" s="10">
+      <c r="L51" s="10">
         <v>68.099999999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="28.5">
+    <row r="52" spans="1:12" ht="28.5">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3260,34 +3420,37 @@
         <v>56</v>
       </c>
       <c r="C52">
+        <v>56</v>
+      </c>
+      <c r="D52">
         <v>215</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>171</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>143</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>49</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="H52" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="I52" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="J52" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="J52" s="10">
+      <c r="K52" s="10">
         <v>2.79</v>
       </c>
-      <c r="K52" s="10">
+      <c r="L52" s="10">
         <v>68.53</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="28.5">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3295,34 +3458,37 @@
         <v>57</v>
       </c>
       <c r="C53">
+        <v>57</v>
+      </c>
+      <c r="D53">
         <v>144</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>146</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>209</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>50</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="H53" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="I53" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="J53" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="J53" s="10">
+      <c r="K53" s="10">
         <v>0.51</v>
       </c>
-      <c r="K53" s="10">
+      <c r="L53" s="10">
         <v>68.37</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="28.5">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3330,34 +3496,37 @@
         <v>58</v>
       </c>
       <c r="C54">
+        <v>58</v>
+      </c>
+      <c r="D54">
         <v>191</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>162</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>204</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>51</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="H54" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="I54" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="J54" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="J54" s="10">
+      <c r="K54" s="10">
         <v>0.24</v>
       </c>
-      <c r="K54" s="10">
+      <c r="L54" s="10">
         <v>68.61</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="28.5">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3365,34 +3534,37 @@
         <v>59</v>
       </c>
       <c r="C55">
+        <v>59</v>
+      </c>
+      <c r="D55">
         <v>183</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>191</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>178</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>52</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="H55" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="I55" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="J55" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="J55" s="10">
+      <c r="K55" s="10">
         <v>0.71</v>
       </c>
-      <c r="K55" s="10">
+      <c r="L55" s="10">
         <v>68.930000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="28.5">
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3400,34 +3572,37 @@
         <v>60</v>
       </c>
       <c r="C56">
+        <v>60</v>
+      </c>
+      <c r="D56">
         <v>112</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>187</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>134</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>53</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="H56" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="I56" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="J56" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="J56" s="10">
+      <c r="K56" s="10">
         <v>4.58</v>
       </c>
-      <c r="K56" s="10">
+      <c r="L56" s="10">
         <v>68.91</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3435,34 +3610,37 @@
         <v>61</v>
       </c>
       <c r="C57">
+        <v>61</v>
+      </c>
+      <c r="D57">
         <v>225</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>145</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>121</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>54</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="H57" s="10" t="s">
+      <c r="I57" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="J57" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J57" s="10">
+      <c r="K57" s="10">
         <v>6.11</v>
       </c>
-      <c r="K57" s="10">
+      <c r="L57" s="10">
         <v>69.12</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3470,34 +3648,37 @@
         <v>62</v>
       </c>
       <c r="C58">
+        <v>62</v>
+      </c>
+      <c r="D58">
         <v>151</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>153</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>180</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>55</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="H58" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="I58" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="I58" s="9" t="s">
+      <c r="J58" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="J58" s="11">
+      <c r="K58" s="11">
         <v>2.08</v>
       </c>
-      <c r="K58" s="11">
+      <c r="L58" s="11">
         <v>67.83</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3505,34 +3686,37 @@
         <v>63</v>
       </c>
       <c r="C59">
+        <v>63</v>
+      </c>
+      <c r="D59">
         <v>118</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>142</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>153</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>56</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="H59" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="I59" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="J59" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="J59" s="10">
+      <c r="K59" s="10">
         <v>2.84</v>
       </c>
-      <c r="K59" s="10">
+      <c r="L59" s="10">
         <v>70.63</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3540,34 +3724,37 @@
         <v>64</v>
       </c>
       <c r="C60">
+        <v>64</v>
+      </c>
+      <c r="D60">
         <v>166</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>165</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>188</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>57</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="H60" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="I60" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="I60" s="6" t="s">
+      <c r="J60" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="J60" s="10">
+      <c r="K60" s="10">
         <v>2.63</v>
       </c>
-      <c r="K60" s="10">
+      <c r="L60" s="10">
         <v>70.290000000000006</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3575,34 +3762,37 @@
         <v>65</v>
       </c>
       <c r="C61">
+        <v>65</v>
+      </c>
+      <c r="D61">
         <v>180</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>120</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>182</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>58</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="H61" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="I61" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="I61" s="6" t="s">
+      <c r="J61" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="J61" s="10">
+      <c r="K61" s="10">
         <v>2.35</v>
       </c>
-      <c r="K61" s="10">
+      <c r="L61" s="10">
         <v>69.61</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3610,34 +3800,37 @@
         <v>66</v>
       </c>
       <c r="C62">
+        <v>66</v>
+      </c>
+      <c r="D62">
         <v>163</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>156</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>203</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>59</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="H62" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="I62" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="I62" s="6" t="s">
+      <c r="J62" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="J62" s="10">
+      <c r="K62" s="10">
         <v>2.16</v>
       </c>
-      <c r="K62" s="10">
+      <c r="L62" s="10">
         <v>68.66</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3645,34 +3838,37 @@
         <v>67</v>
       </c>
       <c r="C63">
+        <v>67</v>
+      </c>
+      <c r="D63">
         <v>218</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>211</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>183</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>60</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="H63" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="I63" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="I63" s="6" t="s">
+      <c r="J63" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="J63" s="10">
+      <c r="K63" s="10">
         <v>3.02</v>
       </c>
-      <c r="K63" s="10">
+      <c r="L63" s="10">
         <v>70.25</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="28.5">
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3680,34 +3876,37 @@
         <v>68</v>
       </c>
       <c r="C64">
+        <v>68</v>
+      </c>
+      <c r="D64">
         <v>171</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>217</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>205</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>61</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="H64" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="H64" s="10" t="s">
+      <c r="I64" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="I64" s="6" t="s">
+      <c r="J64" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="J64" s="10">
+      <c r="K64" s="10">
         <v>1.1299999999999999</v>
       </c>
-      <c r="K64" s="10">
+      <c r="L64" s="10">
         <v>68.78</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="28.5">
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3715,34 +3914,37 @@
         <v>69</v>
       </c>
       <c r="C65">
+        <v>69</v>
+      </c>
+      <c r="D65">
         <v>163</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>110</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>216</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>62</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="H65" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="I65" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="I65" s="6" t="s">
+      <c r="J65" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="J65" s="10">
+      <c r="K65" s="10">
         <v>1.93</v>
       </c>
-      <c r="K65" s="10">
+      <c r="L65" s="10">
         <v>69.19</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3750,34 +3952,37 @@
         <v>70</v>
       </c>
       <c r="C66">
+        <v>70</v>
+      </c>
+      <c r="D66">
         <v>188</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>144</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>204</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>63</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="H66" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="H66" s="10" t="s">
+      <c r="I66" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I66" s="6" t="s">
+      <c r="J66" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="J66" s="10">
+      <c r="K66" s="10">
         <v>0.45</v>
       </c>
-      <c r="K66" s="10">
+      <c r="L66" s="10">
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3785,34 +3990,37 @@
         <v>71</v>
       </c>
       <c r="C67">
+        <v>71</v>
+      </c>
+      <c r="D67">
         <v>202</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>129</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>140</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>64</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="H67" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="H67" s="10" t="s">
+      <c r="I67" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="J67" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="J67" s="10">
+      <c r="K67" s="10">
         <v>0.37</v>
       </c>
-      <c r="K67" s="10">
+      <c r="L67" s="10">
         <v>70.23</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3820,34 +4028,37 @@
         <v>72</v>
       </c>
       <c r="C68">
+        <v>72</v>
+      </c>
+      <c r="D68">
         <v>225</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>214</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>114</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>65</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="H68" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="H68" s="10" t="s">
+      <c r="I68" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="I68" s="6" t="s">
+      <c r="J68" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J68" s="10">
+      <c r="K68" s="10">
         <v>0.87</v>
       </c>
-      <c r="K68" s="10">
+      <c r="L68" s="10">
         <v>70.209999999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3855,34 +4066,37 @@
         <v>73</v>
       </c>
       <c r="C69">
+        <v>73</v>
+      </c>
+      <c r="D69">
         <v>169</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>162</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>218</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>66</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="H69" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="H69" s="10" t="s">
+      <c r="I69" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="I69" s="6" t="s">
+      <c r="J69" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J69" s="10">
+      <c r="K69" s="10">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K69" s="10">
+      <c r="L69" s="10">
         <v>68.95</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3890,691 +4104,772 @@
         <v>74</v>
       </c>
       <c r="C70">
+        <v>74</v>
+      </c>
+      <c r="D70">
         <v>115</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>131</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>122</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>67</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="H70" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="H70" s="10" t="s">
+      <c r="I70" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="I70" s="6" t="s">
+      <c r="J70" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="J70" s="10">
+      <c r="K70" s="10">
         <v>0.15</v>
       </c>
-      <c r="K70" s="10">
+      <c r="L70" s="10">
         <v>72.55</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
+        <v>76</v>
+      </c>
+      <c r="C71">
         <v>2</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>138</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>114</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>148</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>274</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="H71" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="I71" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="J71" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
+        <v>77</v>
+      </c>
+      <c r="C72">
         <v>3</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>149</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>201</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>144</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>68</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="H72" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="I72" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="J72" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
+        <v>79</v>
+      </c>
+      <c r="C73">
         <v>5</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>209</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>118</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>151</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>69</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="H73" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="I73" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="J73" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
+        <v>82</v>
+      </c>
+      <c r="C74">
         <v>8</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>167</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>192</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>171</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>70</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="H74" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="I74" s="7" t="s">
+      <c r="J74" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
+        <v>83</v>
+      </c>
+      <c r="C75">
         <v>9</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>208</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>207</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>110</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>71</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="H75" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="I75" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="J75" s="7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
+        <v>84</v>
+      </c>
+      <c r="C76">
         <v>10</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>178</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>183</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>137</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>72</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="H76" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="I76" s="7" t="s">
+      <c r="J76" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
+        <v>85</v>
+      </c>
+      <c r="C77">
         <v>11</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>127</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>130</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>129</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>73</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="H77" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="I77" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="I77" s="7" t="s">
+      <c r="J77" s="7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
+        <v>88</v>
+      </c>
+      <c r="C78">
         <v>14</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>120</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>169</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>194</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>74</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="H78" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="I78" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="I78" s="7" t="s">
+      <c r="J78" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
+        <v>89</v>
+      </c>
+      <c r="C79">
         <v>15</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>164</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>167</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>218</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>75</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="H79" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="I79" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="J79" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
+        <v>91</v>
+      </c>
+      <c r="C80">
         <v>17</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>109</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>165</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>145</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>76</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="I80" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="I80" s="7" t="s">
+      <c r="J80" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
+        <v>92</v>
+      </c>
+      <c r="C81">
         <v>18</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>225</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>170</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>102</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>77</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="H81" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="I81" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="I81" s="7" t="s">
+      <c r="J81" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
+        <v>93</v>
+      </c>
+      <c r="C82">
         <v>19</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>216</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>112</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>144</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>78</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="H82" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="I82" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="I82" s="7" t="s">
+      <c r="J82" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
+        <v>95</v>
+      </c>
+      <c r="C83">
         <v>21</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>111</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>170</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>140</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>79</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="H83" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="I83" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="I83" s="7" t="s">
+      <c r="J83" s="7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
+        <v>96</v>
+      </c>
+      <c r="C84">
         <v>22</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>217</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>127</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>144</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>80</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="H84" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="I84" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="I84" s="7" t="s">
+      <c r="J84" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
+        <v>97</v>
+      </c>
+      <c r="C85">
         <v>23</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>165</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>192</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>189</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>81</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="H85" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="I85" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="I85" s="7" t="s">
+      <c r="J85" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
+        <v>100</v>
+      </c>
+      <c r="C86">
         <v>26</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>146</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>169</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>106</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>82</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="H86" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I86" s="7" t="s">
+      <c r="J86" s="7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
+        <v>103</v>
+      </c>
+      <c r="C87">
         <v>29</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>161</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>208</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>129</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>83</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="H87" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="I87" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="J87" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
+        <v>105</v>
+      </c>
+      <c r="C88">
         <v>31</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>121</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>168</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>159</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>84</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="H88" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="I88" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="I88" s="7" t="s">
+      <c r="J88" s="7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
+        <v>106</v>
+      </c>
+      <c r="C89">
         <v>32</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>199</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>161</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>219</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>85</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="H89" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="I89" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="I89" s="7" t="s">
+      <c r="J89" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
+        <v>107</v>
+      </c>
+      <c r="C90">
         <v>33</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>110</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>162</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>111</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>86</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="H90" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="I90" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="I90" s="7" t="s">
+      <c r="J90" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
+        <v>108</v>
+      </c>
+      <c r="C91">
         <v>34</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>135</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>145</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>196</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>87</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="H91" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="I91" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="I91" s="7" t="s">
+      <c r="J91" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
+        <v>109</v>
+      </c>
+      <c r="C92">
         <v>1</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
+        <v>110</v>
+      </c>
+      <c r="C93">
         <v>2</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
+        <v>111</v>
+      </c>
+      <c r="C94">
         <v>3</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
+        <v>112</v>
+      </c>
+      <c r="C95">
         <v>4</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
+        <v>113</v>
+      </c>
+      <c r="C96">
         <v>1</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>92</v>
       </c>
     </row>

--- a/MouseAtlas_ROI_ID(已自动还原).xlsx
+++ b/MouseAtlas_ROI_ID(已自动还原).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiali\Documents\tencent files\421695611\filerecv\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7875" tabRatio="362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7875" tabRatio="270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1117,7 +1112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1528,35 +1523,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="8" max="8" width="52.75" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="29.5" style="7" customWidth="1"/>
-    <col min="11" max="11" width="14.25" style="12" customWidth="1"/>
-    <col min="12" max="12" width="9" style="12"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="52.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="29.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="12" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1568,16 +1564,16 @@
         <v>322</v>
       </c>
       <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" t="s">
         <v>94</v>
-      </c>
-      <c r="G2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1587,35 +1583,35 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1.67</v>
+      </c>
+      <c r="H3" s="10">
+        <v>73.180000000000007</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="J3">
         <v>106</v>
       </c>
-      <c r="E3">
+      <c r="K3">
         <v>114</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>188</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" s="10">
-        <v>1.67</v>
-      </c>
-      <c r="L3" s="10">
-        <v>73.180000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1625,32 +1621,32 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.62</v>
+      </c>
+      <c r="H4" s="10">
+        <v>70.77</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="J4">
         <v>106</v>
       </c>
-      <c r="E4">
+      <c r="K4">
         <v>114</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>158</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.62</v>
-      </c>
-      <c r="L4" s="10">
-        <v>70.77</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1660,35 +1656,35 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1.63</v>
+      </c>
+      <c r="H5" s="10">
+        <v>71.11</v>
+      </c>
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="J5">
         <v>116</v>
       </c>
-      <c r="E5">
+      <c r="K5">
         <v>107</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>219</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K5" s="10">
-        <v>1.63</v>
-      </c>
-      <c r="L5" s="10">
-        <v>71.11</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1698,32 +1694,32 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.59</v>
+      </c>
+      <c r="H6" s="10">
+        <v>69.64</v>
+      </c>
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="J6">
         <v>116</v>
       </c>
-      <c r="E6">
+      <c r="K6">
         <v>107</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>189</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0.59</v>
-      </c>
-      <c r="L6" s="10">
-        <v>69.64</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1733,35 +1729,35 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="H7" s="10">
+        <v>72.92</v>
+      </c>
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="J7">
         <v>188</v>
       </c>
-      <c r="E7">
+      <c r="K7">
         <v>119</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>122</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="L7" s="10">
-        <v>72.92</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1771,35 +1767,35 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H8" s="10">
+        <v>70.709999999999994</v>
+      </c>
+      <c r="I8">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="J8">
         <v>152</v>
       </c>
-      <c r="E8">
+      <c r="K8">
         <v>216</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>222</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L8" s="10">
-        <v>70.709999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1809,35 +1805,35 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="H9" s="10">
+        <v>72.55</v>
+      </c>
+      <c r="I9">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="J9">
         <v>198</v>
       </c>
-      <c r="E9">
+      <c r="K9">
         <v>133</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>130</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="L9" s="10">
-        <v>72.55</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1847,35 +1843,35 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1.76</v>
+      </c>
+      <c r="H10" s="10">
+        <v>68.819999999999993</v>
+      </c>
+      <c r="I10">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="J10">
         <v>109</v>
       </c>
-      <c r="E10">
+      <c r="K10">
         <v>112</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>185</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K10" s="10">
-        <v>1.76</v>
-      </c>
-      <c r="L10" s="10">
-        <v>68.819999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1885,35 +1881,35 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2.95</v>
+      </c>
+      <c r="H11" s="10">
+        <v>68.78</v>
+      </c>
+      <c r="I11">
         <v>9</v>
       </c>
-      <c r="D11">
+      <c r="J11">
         <v>204</v>
       </c>
-      <c r="E11">
+      <c r="K11">
         <v>225</v>
       </c>
-      <c r="F11">
+      <c r="L11">
         <v>152</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K11" s="10">
-        <v>2.95</v>
-      </c>
-      <c r="L11" s="10">
-        <v>68.78</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1923,35 +1919,35 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1.67</v>
+      </c>
+      <c r="H12" s="10">
+        <v>71.52</v>
+      </c>
+      <c r="I12">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="J12">
         <v>167</v>
       </c>
-      <c r="E12">
+      <c r="K12">
         <v>105</v>
       </c>
-      <c r="F12">
+      <c r="L12">
         <v>134</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="K12" s="10">
-        <v>1.67</v>
-      </c>
-      <c r="L12" s="10">
-        <v>71.52</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1961,35 +1957,35 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="H13" s="10">
+        <v>69.64</v>
+      </c>
+      <c r="I13">
         <v>11</v>
       </c>
-      <c r="D13">
+      <c r="J13">
         <v>129</v>
       </c>
-      <c r="E13">
+      <c r="K13">
         <v>114</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>143</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K13" s="10">
-        <v>0.83</v>
-      </c>
-      <c r="L13" s="10">
-        <v>69.64</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1999,35 +1995,35 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1.59</v>
+      </c>
+      <c r="H14" s="10">
+        <v>69.260000000000005</v>
+      </c>
+      <c r="I14">
         <v>12</v>
       </c>
-      <c r="D14">
+      <c r="J14">
         <v>220</v>
       </c>
-      <c r="E14">
+      <c r="K14">
         <v>191</v>
       </c>
-      <c r="F14">
+      <c r="L14">
         <v>140</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="K14" s="10">
-        <v>1.59</v>
-      </c>
-      <c r="L14" s="10">
-        <v>69.260000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2037,35 +2033,35 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="H15" s="10">
+        <v>69.97</v>
+      </c>
+      <c r="I15">
         <v>13</v>
       </c>
-      <c r="D15">
+      <c r="J15">
         <v>173</v>
       </c>
-      <c r="E15">
+      <c r="K15">
         <v>165</v>
       </c>
-      <c r="F15">
+      <c r="L15">
         <v>190</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" s="10">
-        <v>1.75</v>
-      </c>
-      <c r="L15" s="10">
-        <v>69.97</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2075,35 +2071,35 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1.74</v>
+      </c>
+      <c r="H16" s="10">
+        <v>69.12</v>
+      </c>
+      <c r="I16">
         <v>14</v>
       </c>
-      <c r="D16">
+      <c r="J16">
         <v>153</v>
       </c>
-      <c r="E16">
+      <c r="K16">
         <v>112</v>
       </c>
-      <c r="F16">
+      <c r="L16">
         <v>189</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="K16" s="10">
-        <v>1.74</v>
-      </c>
-      <c r="L16" s="10">
-        <v>69.12</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28.5">
@@ -2113,35 +2109,35 @@
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="10">
+        <v>4.84</v>
+      </c>
+      <c r="H17" s="10">
+        <v>67.930000000000007</v>
+      </c>
+      <c r="I17">
         <v>16</v>
       </c>
-      <c r="D17">
+      <c r="J17">
         <v>150</v>
       </c>
-      <c r="E17">
+      <c r="K17">
         <v>129</v>
       </c>
-      <c r="F17">
+      <c r="L17">
         <v>163</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="K17" s="10">
-        <v>4.84</v>
-      </c>
-      <c r="L17" s="10">
-        <v>67.930000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2151,35 +2147,35 @@
       <c r="B18">
         <v>18</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="H18" s="10">
+        <v>67.959999999999994</v>
+      </c>
+      <c r="I18">
         <v>18</v>
       </c>
-      <c r="D18">
+      <c r="J18">
         <v>199</v>
       </c>
-      <c r="E18">
+      <c r="K18">
         <v>175</v>
       </c>
-      <c r="F18">
+      <c r="L18">
         <v>200</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K18" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="L18" s="10">
-        <v>67.959999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2189,35 +2185,35 @@
       <c r="B19">
         <v>19</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.69</v>
+      </c>
+      <c r="H19" s="10">
+        <v>66.069999999999993</v>
+      </c>
+      <c r="I19">
         <v>19</v>
       </c>
-      <c r="D19">
+      <c r="J19">
         <v>185</v>
       </c>
-      <c r="E19">
+      <c r="K19">
         <v>171</v>
       </c>
-      <c r="F19">
+      <c r="L19">
         <v>221</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="K19" s="10">
-        <v>0.69</v>
-      </c>
-      <c r="L19" s="10">
-        <v>66.069999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2227,29 +2223,29 @@
       <c r="B20">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20">
         <v>20</v>
       </c>
-      <c r="D20">
+      <c r="J20">
         <v>211</v>
       </c>
-      <c r="E20">
+      <c r="K20">
         <v>156</v>
       </c>
-      <c r="F20">
+      <c r="L20">
         <v>205</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2259,35 +2255,35 @@
       <c r="B21">
         <v>21</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="H21" s="10">
+        <v>72.069999999999993</v>
+      </c>
+      <c r="I21">
         <v>21</v>
       </c>
-      <c r="D21">
+      <c r="J21">
         <v>201</v>
       </c>
-      <c r="E21">
+      <c r="K21">
         <v>202</v>
       </c>
-      <c r="F21">
+      <c r="L21">
         <v>152</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="K21" s="10">
-        <v>0.21</v>
-      </c>
-      <c r="L21" s="10">
-        <v>72.069999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2297,35 +2293,35 @@
       <c r="B22">
         <v>24</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1.67</v>
+      </c>
+      <c r="H22" s="10">
+        <v>69.16</v>
+      </c>
+      <c r="I22">
         <v>24</v>
       </c>
-      <c r="D22">
+      <c r="J22">
         <v>147</v>
       </c>
-      <c r="E22">
+      <c r="K22">
         <v>159</v>
       </c>
-      <c r="F22">
+      <c r="L22">
         <v>108</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="K22" s="10">
-        <v>1.67</v>
-      </c>
-      <c r="L22" s="10">
-        <v>69.16</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2335,35 +2331,35 @@
       <c r="B23">
         <v>25</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="10">
+        <v>3.11</v>
+      </c>
+      <c r="H23" s="10">
+        <v>69.459999999999994</v>
+      </c>
+      <c r="I23">
         <v>25</v>
       </c>
-      <c r="D23">
+      <c r="J23">
         <v>186</v>
       </c>
-      <c r="E23">
+      <c r="K23">
         <v>150</v>
       </c>
-      <c r="F23">
+      <c r="L23">
         <v>118</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="K23" s="10">
-        <v>3.11</v>
-      </c>
-      <c r="L23" s="10">
-        <v>69.459999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2373,35 +2369,35 @@
       <c r="B24">
         <v>26</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H24" s="10">
+        <v>68.47</v>
+      </c>
+      <c r="I24">
         <v>26</v>
       </c>
-      <c r="D24">
+      <c r="J24">
         <v>105</v>
       </c>
-      <c r="E24">
+      <c r="K24">
         <v>101</v>
       </c>
-      <c r="F24">
+      <c r="L24">
         <v>208</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="K24" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L24" s="10">
-        <v>68.47</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2411,35 +2407,35 @@
       <c r="B25">
         <v>27</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="H25" s="11">
+        <v>68.040000000000006</v>
+      </c>
+      <c r="I25">
         <v>27</v>
       </c>
-      <c r="D25">
+      <c r="J25">
         <v>225</v>
       </c>
-      <c r="E25">
+      <c r="K25">
         <v>173</v>
       </c>
-      <c r="F25">
+      <c r="L25">
         <v>160</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0.74</v>
-      </c>
-      <c r="L25" s="11">
-        <v>68.040000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2449,35 +2445,35 @@
       <c r="B26">
         <v>28</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="H26" s="10">
+        <v>72.69</v>
+      </c>
+      <c r="I26">
         <v>28</v>
       </c>
-      <c r="D26">
+      <c r="J26">
         <v>198</v>
       </c>
-      <c r="E26">
+      <c r="K26">
         <v>189</v>
       </c>
-      <c r="F26">
+      <c r="L26">
         <v>174</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="K26" s="10">
-        <v>0.84</v>
-      </c>
-      <c r="L26" s="10">
-        <v>72.69</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2487,35 +2483,35 @@
       <c r="B27">
         <v>29</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" s="10">
+        <v>2.85</v>
+      </c>
+      <c r="H27" s="10">
+        <v>69.959999999999994</v>
+      </c>
+      <c r="I27">
         <v>29</v>
       </c>
-      <c r="D27">
+      <c r="J27">
         <v>193</v>
       </c>
-      <c r="E27">
+      <c r="K27">
         <v>223</v>
       </c>
-      <c r="F27">
+      <c r="L27">
         <v>190</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="K27" s="10">
-        <v>2.85</v>
-      </c>
-      <c r="L27" s="10">
-        <v>69.959999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2525,35 +2521,35 @@
       <c r="B28">
         <v>31</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="H28" s="10">
+        <v>68.59</v>
+      </c>
+      <c r="I28">
         <v>31</v>
       </c>
-      <c r="D28">
+      <c r="J28">
         <v>181</v>
       </c>
-      <c r="E28">
+      <c r="K28">
         <v>172</v>
       </c>
-      <c r="F28">
+      <c r="L28">
         <v>186</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="K28" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="L28" s="10">
-        <v>68.59</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2563,35 +2559,35 @@
       <c r="B29">
         <v>32</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="10">
+        <v>4.54</v>
+      </c>
+      <c r="H29" s="10">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="I29">
         <v>32</v>
       </c>
-      <c r="D29">
+      <c r="J29">
         <v>124</v>
       </c>
-      <c r="E29">
+      <c r="K29">
         <v>204</v>
       </c>
-      <c r="F29">
+      <c r="L29">
         <v>208</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="K29" s="10">
-        <v>4.54</v>
-      </c>
-      <c r="L29" s="10">
-        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2601,26 +2597,26 @@
       <c r="B30">
         <v>33</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30">
         <v>33</v>
       </c>
-      <c r="D30">
+      <c r="J30">
         <v>124</v>
       </c>
-      <c r="E30">
+      <c r="K30">
         <v>121</v>
       </c>
-      <c r="F30">
+      <c r="L30">
         <v>124</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2630,26 +2626,26 @@
       <c r="B31">
         <v>34</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31">
         <v>34</v>
       </c>
-      <c r="D31">
+      <c r="J31">
         <v>205</v>
       </c>
-      <c r="E31">
+      <c r="K31">
         <v>163</v>
       </c>
-      <c r="F31">
+      <c r="L31">
         <v>146</v>
-      </c>
-      <c r="G31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2659,35 +2655,35 @@
       <c r="B32">
         <v>35</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G32" s="10">
+        <v>2.44</v>
+      </c>
+      <c r="H32" s="10">
+        <v>67.78</v>
+      </c>
+      <c r="I32">
         <v>35</v>
       </c>
-      <c r="D32">
+      <c r="J32">
         <v>132</v>
       </c>
-      <c r="E32">
+      <c r="K32">
         <v>205</v>
       </c>
-      <c r="F32">
+      <c r="L32">
         <v>205</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="K32" s="10">
-        <v>2.44</v>
-      </c>
-      <c r="L32" s="10">
-        <v>67.78</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2697,35 +2693,35 @@
       <c r="B33">
         <v>37</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H33" s="10">
+        <v>69.22</v>
+      </c>
+      <c r="I33">
         <v>37</v>
       </c>
-      <c r="D33">
+      <c r="J33">
         <v>205</v>
       </c>
-      <c r="E33">
+      <c r="K33">
         <v>141</v>
       </c>
-      <c r="F33">
+      <c r="L33">
         <v>119</v>
-      </c>
-      <c r="G33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="K33" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="L33" s="10">
-        <v>69.22</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2735,35 +2731,35 @@
       <c r="B34">
         <v>38</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="10">
+        <v>6.68</v>
+      </c>
+      <c r="H34" s="10">
+        <v>68</v>
+      </c>
+      <c r="I34">
         <v>38</v>
       </c>
-      <c r="D34">
+      <c r="J34">
         <v>219</v>
       </c>
-      <c r="E34">
+      <c r="K34">
         <v>193</v>
       </c>
-      <c r="F34">
+      <c r="L34">
         <v>152</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="K34" s="10">
-        <v>6.68</v>
-      </c>
-      <c r="L34" s="10">
-        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2773,35 +2769,35 @@
       <c r="B35">
         <v>39</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" s="10">
+        <v>6.52</v>
+      </c>
+      <c r="H35" s="10">
+        <v>69.09</v>
+      </c>
+      <c r="I35">
         <v>39</v>
       </c>
-      <c r="D35">
+      <c r="J35">
         <v>177</v>
       </c>
-      <c r="E35">
+      <c r="K35">
         <v>218</v>
       </c>
-      <c r="F35">
+      <c r="L35">
         <v>169</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="K35" s="10">
-        <v>6.52</v>
-      </c>
-      <c r="L35" s="10">
-        <v>69.09</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="28.5">
@@ -2811,35 +2807,35 @@
       <c r="B36">
         <v>40</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H36" s="10">
+        <v>70.650000000000006</v>
+      </c>
+      <c r="I36">
         <v>40</v>
       </c>
-      <c r="D36">
+      <c r="J36">
         <v>154</v>
       </c>
-      <c r="E36">
+      <c r="K36">
         <v>196</v>
       </c>
-      <c r="F36">
+      <c r="L36">
         <v>151</v>
-      </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="K36" s="10">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L36" s="10">
-        <v>70.650000000000006</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2849,35 +2845,35 @@
       <c r="B37">
         <v>41</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1.37</v>
+      </c>
+      <c r="H37" s="10">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="I37">
         <v>41</v>
       </c>
-      <c r="D37">
+      <c r="J37">
         <v>167</v>
       </c>
-      <c r="E37">
+      <c r="K37">
         <v>136</v>
       </c>
-      <c r="F37">
+      <c r="L37">
         <v>117</v>
-      </c>
-      <c r="G37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="K37" s="10">
-        <v>1.37</v>
-      </c>
-      <c r="L37" s="10">
-        <v>70.989999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2887,35 +2883,35 @@
       <c r="B38">
         <v>42</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="H38" s="10">
+        <v>69.5</v>
+      </c>
+      <c r="I38">
         <v>42</v>
       </c>
-      <c r="D38">
+      <c r="J38">
         <v>176</v>
       </c>
-      <c r="E38">
+      <c r="K38">
         <v>143</v>
       </c>
-      <c r="F38">
+      <c r="L38">
         <v>198</v>
-      </c>
-      <c r="G38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="K38" s="10">
-        <v>0.46</v>
-      </c>
-      <c r="L38" s="10">
-        <v>69.5</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2925,35 +2921,35 @@
       <c r="B39">
         <v>43</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="11">
+        <v>1.42</v>
+      </c>
+      <c r="H39" s="11">
+        <v>70.069999999999993</v>
+      </c>
+      <c r="I39">
         <v>43</v>
       </c>
-      <c r="D39">
+      <c r="J39">
         <v>119</v>
       </c>
-      <c r="E39">
+      <c r="K39">
         <v>134</v>
       </c>
-      <c r="F39">
+      <c r="L39">
         <v>188</v>
-      </c>
-      <c r="G39" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="K39" s="11">
-        <v>1.42</v>
-      </c>
-      <c r="L39" s="11">
-        <v>70.069999999999993</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2963,35 +2959,35 @@
       <c r="B40">
         <v>44</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" s="10">
+        <v>8.92</v>
+      </c>
+      <c r="H40" s="10">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="I40">
         <v>44</v>
       </c>
-      <c r="D40">
+      <c r="J40">
         <v>213</v>
       </c>
-      <c r="E40">
+      <c r="K40">
         <v>190</v>
       </c>
-      <c r="F40">
+      <c r="L40">
         <v>147</v>
-      </c>
-      <c r="G40" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="K40" s="10">
-        <v>8.92</v>
-      </c>
-      <c r="L40" s="10">
-        <v>71.150000000000006</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="28.5">
@@ -3001,35 +2997,35 @@
       <c r="B41">
         <v>45</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="H41" s="10">
+        <v>67.67</v>
+      </c>
+      <c r="I41">
         <v>45</v>
       </c>
-      <c r="D41">
+      <c r="J41">
         <v>158</v>
       </c>
-      <c r="E41">
+      <c r="K41">
         <v>174</v>
       </c>
-      <c r="F41">
+      <c r="L41">
         <v>139</v>
-      </c>
-      <c r="G41" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="K41" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="L41" s="10">
-        <v>67.67</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="28.5">
@@ -3039,35 +3035,35 @@
       <c r="B42">
         <v>46</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G42" s="10">
+        <v>1.08</v>
+      </c>
+      <c r="H42" s="10">
+        <v>70.2</v>
+      </c>
+      <c r="I42">
         <v>46</v>
       </c>
-      <c r="D42">
+      <c r="J42">
         <v>215</v>
       </c>
-      <c r="E42">
+      <c r="K42">
         <v>100</v>
       </c>
-      <c r="F42">
+      <c r="L42">
         <v>198</v>
-      </c>
-      <c r="G42" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="K42" s="10">
-        <v>1.08</v>
-      </c>
-      <c r="L42" s="10">
-        <v>70.2</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3077,35 +3073,35 @@
       <c r="B43">
         <v>47</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="H43" s="11">
+        <v>69.17</v>
+      </c>
+      <c r="I43">
         <v>47</v>
       </c>
-      <c r="D43">
+      <c r="J43">
         <v>210</v>
       </c>
-      <c r="E43">
+      <c r="K43">
         <v>160</v>
       </c>
-      <c r="F43">
+      <c r="L43">
         <v>154</v>
-      </c>
-      <c r="G43" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="K43" s="11">
-        <v>0.64</v>
-      </c>
-      <c r="L43" s="11">
-        <v>69.17</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3115,35 +3111,35 @@
       <c r="B44">
         <v>48</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G44" s="10">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H44" s="10">
+        <v>69.28</v>
+      </c>
+      <c r="I44">
         <v>48</v>
       </c>
-      <c r="D44">
+      <c r="J44">
         <v>155</v>
       </c>
-      <c r="E44">
+      <c r="K44">
         <v>125</v>
       </c>
-      <c r="F44">
+      <c r="L44">
         <v>113</v>
-      </c>
-      <c r="G44" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="K44" s="10">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="L44" s="10">
-        <v>69.28</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3153,35 +3149,35 @@
       <c r="B45">
         <v>49</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="H45" s="11">
+        <v>70.040000000000006</v>
+      </c>
+      <c r="I45">
         <v>49</v>
       </c>
-      <c r="D45">
+      <c r="J45">
         <v>193</v>
       </c>
-      <c r="E45">
+      <c r="K45">
         <v>118</v>
       </c>
-      <c r="F45">
+      <c r="L45">
         <v>186</v>
-      </c>
-      <c r="G45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="K45" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="L45" s="11">
-        <v>70.040000000000006</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3191,35 +3187,35 @@
       <c r="B46">
         <v>50</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="H46" s="10">
+        <v>68.86</v>
+      </c>
+      <c r="I46">
         <v>50</v>
       </c>
-      <c r="D46">
+      <c r="J46">
         <v>180</v>
       </c>
-      <c r="E46">
+      <c r="K46">
         <v>119</v>
       </c>
-      <c r="F46">
+      <c r="L46">
         <v>189</v>
-      </c>
-      <c r="G46" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="K46" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="L46" s="10">
-        <v>68.86</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3229,35 +3225,35 @@
       <c r="B47">
         <v>51</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="H47" s="10">
+        <v>67.48</v>
+      </c>
+      <c r="I47">
         <v>51</v>
       </c>
-      <c r="D47">
+      <c r="J47">
         <v>188</v>
       </c>
-      <c r="E47">
+      <c r="K47">
         <v>148</v>
       </c>
-      <c r="F47">
+      <c r="L47">
         <v>195</v>
-      </c>
-      <c r="G47" t="s">
-        <v>44</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="K47" s="10">
-        <v>0.34</v>
-      </c>
-      <c r="L47" s="10">
-        <v>67.48</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3267,35 +3263,35 @@
       <c r="B48">
         <v>52</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G48" s="10">
+        <v>3.82</v>
+      </c>
+      <c r="H48" s="10">
+        <v>68.58</v>
+      </c>
+      <c r="I48">
         <v>52</v>
       </c>
-      <c r="D48">
+      <c r="J48">
         <v>191</v>
       </c>
-      <c r="E48">
+      <c r="K48">
         <v>151</v>
       </c>
-      <c r="F48">
+      <c r="L48">
         <v>132</v>
-      </c>
-      <c r="G48" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="K48" s="10">
-        <v>3.82</v>
-      </c>
-      <c r="L48" s="10">
-        <v>68.58</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="28.5">
@@ -3305,35 +3301,35 @@
       <c r="B49">
         <v>53</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G49" s="10">
+        <v>9.11</v>
+      </c>
+      <c r="H49" s="10">
+        <v>68.41</v>
+      </c>
+      <c r="I49">
         <v>53</v>
       </c>
-      <c r="D49">
+      <c r="J49">
         <v>126</v>
       </c>
-      <c r="E49">
+      <c r="K49">
         <v>223</v>
       </c>
-      <c r="F49">
+      <c r="L49">
         <v>208</v>
-      </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="K49" s="10">
-        <v>9.11</v>
-      </c>
-      <c r="L49" s="10">
-        <v>68.41</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3343,35 +3339,35 @@
       <c r="B50">
         <v>54</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="H50" s="10">
+        <v>68.8</v>
+      </c>
+      <c r="I50">
         <v>54</v>
       </c>
-      <c r="D50">
+      <c r="J50">
         <v>190</v>
       </c>
-      <c r="E50">
+      <c r="K50">
         <v>193</v>
       </c>
-      <c r="F50">
+      <c r="L50">
         <v>172</v>
-      </c>
-      <c r="G50" t="s">
-        <v>47</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="K50" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="L50" s="10">
-        <v>68.8</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="28.5">
@@ -3381,35 +3377,35 @@
       <c r="B51">
         <v>55</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G51" s="10">
+        <v>3.96</v>
+      </c>
+      <c r="H51" s="10">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="I51">
         <v>55</v>
       </c>
-      <c r="D51">
+      <c r="J51">
         <v>115</v>
       </c>
-      <c r="E51">
+      <c r="K51">
         <v>108</v>
       </c>
-      <c r="F51">
+      <c r="L51">
         <v>212</v>
-      </c>
-      <c r="G51" t="s">
-        <v>48</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="K51" s="10">
-        <v>3.96</v>
-      </c>
-      <c r="L51" s="10">
-        <v>68.099999999999994</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="28.5">
@@ -3419,35 +3415,35 @@
       <c r="B52">
         <v>56</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G52" s="10">
+        <v>2.79</v>
+      </c>
+      <c r="H52" s="10">
+        <v>68.53</v>
+      </c>
+      <c r="I52">
         <v>56</v>
       </c>
-      <c r="D52">
+      <c r="J52">
         <v>215</v>
       </c>
-      <c r="E52">
+      <c r="K52">
         <v>171</v>
       </c>
-      <c r="F52">
+      <c r="L52">
         <v>143</v>
-      </c>
-      <c r="G52" t="s">
-        <v>49</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="K52" s="10">
-        <v>2.79</v>
-      </c>
-      <c r="L52" s="10">
-        <v>68.53</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3457,35 +3453,35 @@
       <c r="B53">
         <v>57</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="H53" s="10">
+        <v>68.37</v>
+      </c>
+      <c r="I53">
         <v>57</v>
       </c>
-      <c r="D53">
+      <c r="J53">
         <v>144</v>
       </c>
-      <c r="E53">
+      <c r="K53">
         <v>146</v>
       </c>
-      <c r="F53">
+      <c r="L53">
         <v>209</v>
-      </c>
-      <c r="G53" t="s">
-        <v>50</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="K53" s="10">
-        <v>0.51</v>
-      </c>
-      <c r="L53" s="10">
-        <v>68.37</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3495,35 +3491,35 @@
       <c r="B54">
         <v>58</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G54" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="H54" s="10">
+        <v>68.61</v>
+      </c>
+      <c r="I54">
         <v>58</v>
       </c>
-      <c r="D54">
+      <c r="J54">
         <v>191</v>
       </c>
-      <c r="E54">
+      <c r="K54">
         <v>162</v>
       </c>
-      <c r="F54">
+      <c r="L54">
         <v>204</v>
-      </c>
-      <c r="G54" t="s">
-        <v>51</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="K54" s="10">
-        <v>0.24</v>
-      </c>
-      <c r="L54" s="10">
-        <v>68.61</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3533,35 +3529,35 @@
       <c r="B55">
         <v>59</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G55" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="H55" s="10">
+        <v>68.930000000000007</v>
+      </c>
+      <c r="I55">
         <v>59</v>
       </c>
-      <c r="D55">
+      <c r="J55">
         <v>183</v>
       </c>
-      <c r="E55">
+      <c r="K55">
         <v>191</v>
       </c>
-      <c r="F55">
+      <c r="L55">
         <v>178</v>
-      </c>
-      <c r="G55" t="s">
-        <v>52</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="K55" s="10">
-        <v>0.71</v>
-      </c>
-      <c r="L55" s="10">
-        <v>68.930000000000007</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3571,35 +3567,35 @@
       <c r="B56">
         <v>60</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G56" s="10">
+        <v>4.58</v>
+      </c>
+      <c r="H56" s="10">
+        <v>68.91</v>
+      </c>
+      <c r="I56">
         <v>60</v>
       </c>
-      <c r="D56">
+      <c r="J56">
         <v>112</v>
       </c>
-      <c r="E56">
+      <c r="K56">
         <v>187</v>
       </c>
-      <c r="F56">
+      <c r="L56">
         <v>134</v>
-      </c>
-      <c r="G56" t="s">
-        <v>53</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K56" s="10">
-        <v>4.58</v>
-      </c>
-      <c r="L56" s="10">
-        <v>68.91</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3609,35 +3605,35 @@
       <c r="B57">
         <v>61</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G57" s="10">
+        <v>6.11</v>
+      </c>
+      <c r="H57" s="10">
+        <v>69.12</v>
+      </c>
+      <c r="I57">
         <v>61</v>
       </c>
-      <c r="D57">
+      <c r="J57">
         <v>225</v>
       </c>
-      <c r="E57">
+      <c r="K57">
         <v>145</v>
       </c>
-      <c r="F57">
+      <c r="L57">
         <v>121</v>
-      </c>
-      <c r="G57" t="s">
-        <v>54</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="K57" s="10">
-        <v>6.11</v>
-      </c>
-      <c r="L57" s="10">
-        <v>69.12</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3647,35 +3643,35 @@
       <c r="B58">
         <v>62</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G58" s="11">
+        <v>2.08</v>
+      </c>
+      <c r="H58" s="11">
+        <v>67.83</v>
+      </c>
+      <c r="I58">
         <v>62</v>
       </c>
-      <c r="D58">
+      <c r="J58">
         <v>151</v>
       </c>
-      <c r="E58">
+      <c r="K58">
         <v>153</v>
       </c>
-      <c r="F58">
+      <c r="L58">
         <v>180</v>
-      </c>
-      <c r="G58" t="s">
-        <v>55</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="K58" s="11">
-        <v>2.08</v>
-      </c>
-      <c r="L58" s="11">
-        <v>67.83</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3685,35 +3681,35 @@
       <c r="B59">
         <v>63</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G59" s="10">
+        <v>2.84</v>
+      </c>
+      <c r="H59" s="10">
+        <v>70.63</v>
+      </c>
+      <c r="I59">
         <v>63</v>
       </c>
-      <c r="D59">
+      <c r="J59">
         <v>118</v>
       </c>
-      <c r="E59">
+      <c r="K59">
         <v>142</v>
       </c>
-      <c r="F59">
+      <c r="L59">
         <v>153</v>
-      </c>
-      <c r="G59" t="s">
-        <v>56</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="K59" s="10">
-        <v>2.84</v>
-      </c>
-      <c r="L59" s="10">
-        <v>70.63</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3723,35 +3719,35 @@
       <c r="B60">
         <v>64</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G60" s="10">
+        <v>2.63</v>
+      </c>
+      <c r="H60" s="10">
+        <v>70.290000000000006</v>
+      </c>
+      <c r="I60">
         <v>64</v>
       </c>
-      <c r="D60">
+      <c r="J60">
         <v>166</v>
       </c>
-      <c r="E60">
+      <c r="K60">
         <v>165</v>
       </c>
-      <c r="F60">
+      <c r="L60">
         <v>188</v>
-      </c>
-      <c r="G60" t="s">
-        <v>57</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="K60" s="10">
-        <v>2.63</v>
-      </c>
-      <c r="L60" s="10">
-        <v>70.290000000000006</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3761,35 +3757,35 @@
       <c r="B61">
         <v>65</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G61" s="10">
+        <v>2.35</v>
+      </c>
+      <c r="H61" s="10">
+        <v>69.61</v>
+      </c>
+      <c r="I61">
         <v>65</v>
       </c>
-      <c r="D61">
+      <c r="J61">
         <v>180</v>
       </c>
-      <c r="E61">
+      <c r="K61">
         <v>120</v>
       </c>
-      <c r="F61">
+      <c r="L61">
         <v>182</v>
-      </c>
-      <c r="G61" t="s">
-        <v>58</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="K61" s="10">
-        <v>2.35</v>
-      </c>
-      <c r="L61" s="10">
-        <v>69.61</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3799,35 +3795,35 @@
       <c r="B62">
         <v>66</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G62" s="10">
+        <v>2.16</v>
+      </c>
+      <c r="H62" s="10">
+        <v>68.66</v>
+      </c>
+      <c r="I62">
         <v>66</v>
       </c>
-      <c r="D62">
+      <c r="J62">
         <v>163</v>
       </c>
-      <c r="E62">
+      <c r="K62">
         <v>156</v>
       </c>
-      <c r="F62">
+      <c r="L62">
         <v>203</v>
-      </c>
-      <c r="G62" t="s">
-        <v>59</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="K62" s="10">
-        <v>2.16</v>
-      </c>
-      <c r="L62" s="10">
-        <v>68.66</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3837,35 +3833,35 @@
       <c r="B63">
         <v>67</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G63" s="10">
+        <v>3.02</v>
+      </c>
+      <c r="H63" s="10">
+        <v>70.25</v>
+      </c>
+      <c r="I63">
         <v>67</v>
       </c>
-      <c r="D63">
+      <c r="J63">
         <v>218</v>
       </c>
-      <c r="E63">
+      <c r="K63">
         <v>211</v>
       </c>
-      <c r="F63">
+      <c r="L63">
         <v>183</v>
-      </c>
-      <c r="G63" t="s">
-        <v>60</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="K63" s="10">
-        <v>3.02</v>
-      </c>
-      <c r="L63" s="10">
-        <v>70.25</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3875,35 +3871,35 @@
       <c r="B64">
         <v>68</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G64" s="10">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H64" s="10">
+        <v>68.78</v>
+      </c>
+      <c r="I64">
         <v>68</v>
       </c>
-      <c r="D64">
+      <c r="J64">
         <v>171</v>
       </c>
-      <c r="E64">
+      <c r="K64">
         <v>217</v>
       </c>
-      <c r="F64">
+      <c r="L64">
         <v>205</v>
-      </c>
-      <c r="G64" t="s">
-        <v>61</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="K64" s="10">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="L64" s="10">
-        <v>68.78</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3913,35 +3909,35 @@
       <c r="B65">
         <v>69</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G65" s="10">
+        <v>1.93</v>
+      </c>
+      <c r="H65" s="10">
+        <v>69.19</v>
+      </c>
+      <c r="I65">
         <v>69</v>
       </c>
-      <c r="D65">
+      <c r="J65">
         <v>163</v>
       </c>
-      <c r="E65">
+      <c r="K65">
         <v>110</v>
       </c>
-      <c r="F65">
+      <c r="L65">
         <v>216</v>
-      </c>
-      <c r="G65" t="s">
-        <v>62</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="K65" s="10">
-        <v>1.93</v>
-      </c>
-      <c r="L65" s="10">
-        <v>69.19</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3951,35 +3947,35 @@
       <c r="B66">
         <v>70</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G66" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="H66" s="10">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="I66">
         <v>70</v>
       </c>
-      <c r="D66">
+      <c r="J66">
         <v>188</v>
       </c>
-      <c r="E66">
+      <c r="K66">
         <v>144</v>
       </c>
-      <c r="F66">
+      <c r="L66">
         <v>204</v>
-      </c>
-      <c r="G66" t="s">
-        <v>63</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K66" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="L66" s="10">
-        <v>73.099999999999994</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3989,35 +3985,35 @@
       <c r="B67">
         <v>71</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G67" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="H67" s="10">
+        <v>70.23</v>
+      </c>
+      <c r="I67">
         <v>71</v>
       </c>
-      <c r="D67">
+      <c r="J67">
         <v>202</v>
       </c>
-      <c r="E67">
+      <c r="K67">
         <v>129</v>
       </c>
-      <c r="F67">
+      <c r="L67">
         <v>140</v>
-      </c>
-      <c r="G67" t="s">
-        <v>64</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="K67" s="10">
-        <v>0.37</v>
-      </c>
-      <c r="L67" s="10">
-        <v>70.23</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4027,35 +4023,35 @@
       <c r="B68">
         <v>72</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G68" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="H68" s="10">
+        <v>70.209999999999994</v>
+      </c>
+      <c r="I68">
         <v>72</v>
       </c>
-      <c r="D68">
+      <c r="J68">
         <v>225</v>
       </c>
-      <c r="E68">
+      <c r="K68">
         <v>214</v>
       </c>
-      <c r="F68">
+      <c r="L68">
         <v>114</v>
-      </c>
-      <c r="G68" t="s">
-        <v>65</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="K68" s="10">
-        <v>0.87</v>
-      </c>
-      <c r="L68" s="10">
-        <v>70.209999999999994</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4065,35 +4061,35 @@
       <c r="B69">
         <v>73</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G69" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H69" s="10">
+        <v>68.95</v>
+      </c>
+      <c r="I69">
         <v>73</v>
       </c>
-      <c r="D69">
+      <c r="J69">
         <v>169</v>
       </c>
-      <c r="E69">
+      <c r="K69">
         <v>162</v>
       </c>
-      <c r="F69">
+      <c r="L69">
         <v>218</v>
-      </c>
-      <c r="G69" t="s">
-        <v>66</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="K69" s="10">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="L69" s="10">
-        <v>68.95</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4103,35 +4099,35 @@
       <c r="B70">
         <v>74</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G70" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="H70" s="10">
+        <v>72.55</v>
+      </c>
+      <c r="I70">
         <v>74</v>
       </c>
-      <c r="D70">
+      <c r="J70">
         <v>115</v>
       </c>
-      <c r="E70">
+      <c r="K70">
         <v>131</v>
       </c>
-      <c r="F70">
+      <c r="L70">
         <v>122</v>
-      </c>
-      <c r="G70" t="s">
-        <v>67</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="K70" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="L70" s="10">
-        <v>72.55</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4141,29 +4137,29 @@
       <c r="B71">
         <v>76</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="s">
+        <v>274</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="I71">
         <v>2</v>
       </c>
-      <c r="D71">
+      <c r="J71">
         <v>138</v>
       </c>
-      <c r="E71">
+      <c r="K71">
         <v>114</v>
       </c>
-      <c r="F71">
+      <c r="L71">
         <v>148</v>
-      </c>
-      <c r="G71" t="s">
-        <v>274</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4173,29 +4169,29 @@
       <c r="B72">
         <v>77</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="I72">
         <v>3</v>
       </c>
-      <c r="D72">
+      <c r="J72">
         <v>149</v>
       </c>
-      <c r="E72">
+      <c r="K72">
         <v>201</v>
       </c>
-      <c r="F72">
+      <c r="L72">
         <v>144</v>
-      </c>
-      <c r="G72" t="s">
-        <v>68</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4205,29 +4201,29 @@
       <c r="B73">
         <v>79</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="I73">
         <v>5</v>
       </c>
-      <c r="D73">
+      <c r="J73">
         <v>209</v>
       </c>
-      <c r="E73">
+      <c r="K73">
         <v>118</v>
       </c>
-      <c r="F73">
+      <c r="L73">
         <v>151</v>
-      </c>
-      <c r="G73" t="s">
-        <v>69</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4237,29 +4233,29 @@
       <c r="B74">
         <v>82</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I74">
         <v>8</v>
       </c>
-      <c r="D74">
+      <c r="J74">
         <v>167</v>
       </c>
-      <c r="E74">
+      <c r="K74">
         <v>192</v>
       </c>
-      <c r="F74">
+      <c r="L74">
         <v>171</v>
-      </c>
-      <c r="G74" t="s">
-        <v>70</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4269,29 +4265,29 @@
       <c r="B75">
         <v>83</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="I75">
         <v>9</v>
       </c>
-      <c r="D75">
+      <c r="J75">
         <v>208</v>
       </c>
-      <c r="E75">
+      <c r="K75">
         <v>207</v>
       </c>
-      <c r="F75">
+      <c r="L75">
         <v>110</v>
-      </c>
-      <c r="G75" t="s">
-        <v>71</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4301,26 +4297,26 @@
       <c r="B76">
         <v>84</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="I76">
         <v>10</v>
       </c>
-      <c r="D76">
+      <c r="J76">
         <v>178</v>
       </c>
-      <c r="E76">
+      <c r="K76">
         <v>183</v>
       </c>
-      <c r="F76">
+      <c r="L76">
         <v>137</v>
-      </c>
-      <c r="G76" t="s">
-        <v>72</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4330,29 +4326,29 @@
       <c r="B77">
         <v>85</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I77">
         <v>11</v>
       </c>
-      <c r="D77">
+      <c r="J77">
         <v>127</v>
       </c>
-      <c r="E77">
+      <c r="K77">
         <v>130</v>
       </c>
-      <c r="F77">
+      <c r="L77">
         <v>129</v>
-      </c>
-      <c r="G77" t="s">
-        <v>73</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4362,29 +4358,29 @@
       <c r="B78">
         <v>88</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="I78">
         <v>14</v>
       </c>
-      <c r="D78">
+      <c r="J78">
         <v>120</v>
       </c>
-      <c r="E78">
+      <c r="K78">
         <v>169</v>
       </c>
-      <c r="F78">
+      <c r="L78">
         <v>194</v>
-      </c>
-      <c r="G78" t="s">
-        <v>74</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4394,29 +4390,29 @@
       <c r="B79">
         <v>89</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I79">
         <v>15</v>
       </c>
-      <c r="D79">
+      <c r="J79">
         <v>164</v>
       </c>
-      <c r="E79">
+      <c r="K79">
         <v>167</v>
       </c>
-      <c r="F79">
+      <c r="L79">
         <v>218</v>
-      </c>
-      <c r="G79" t="s">
-        <v>75</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4426,451 +4422,451 @@
       <c r="B80">
         <v>91</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="I80">
         <v>17</v>
       </c>
-      <c r="D80">
+      <c r="J80">
         <v>109</v>
       </c>
-      <c r="E80">
+      <c r="K80">
         <v>165</v>
       </c>
-      <c r="F80">
+      <c r="L80">
         <v>145</v>
       </c>
-      <c r="G80" t="s">
-        <v>76</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
         <v>92</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="I81">
         <v>18</v>
       </c>
-      <c r="D81">
+      <c r="J81">
         <v>225</v>
       </c>
-      <c r="E81">
+      <c r="K81">
         <v>170</v>
       </c>
-      <c r="F81">
+      <c r="L81">
         <v>102</v>
       </c>
-      <c r="G81" t="s">
-        <v>77</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
         <v>93</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="I82">
         <v>19</v>
       </c>
-      <c r="D82">
+      <c r="J82">
         <v>216</v>
       </c>
-      <c r="E82">
+      <c r="K82">
         <v>112</v>
       </c>
-      <c r="F82">
+      <c r="L82">
         <v>144</v>
       </c>
-      <c r="G82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
         <v>95</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="s">
+        <v>79</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="I83">
         <v>21</v>
       </c>
-      <c r="D83">
+      <c r="J83">
         <v>111</v>
       </c>
-      <c r="E83">
+      <c r="K83">
         <v>170</v>
       </c>
-      <c r="F83">
+      <c r="L83">
         <v>140</v>
       </c>
-      <c r="G83" t="s">
-        <v>79</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
         <v>96</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="I84">
         <v>22</v>
       </c>
-      <c r="D84">
+      <c r="J84">
         <v>217</v>
       </c>
-      <c r="E84">
+      <c r="K84">
         <v>127</v>
       </c>
-      <c r="F84">
+      <c r="L84">
         <v>144</v>
       </c>
-      <c r="G84" t="s">
-        <v>80</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
         <v>97</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="I85">
         <v>23</v>
       </c>
-      <c r="D85">
+      <c r="J85">
         <v>165</v>
       </c>
-      <c r="E85">
+      <c r="K85">
         <v>192</v>
       </c>
-      <c r="F85">
+      <c r="L85">
         <v>189</v>
       </c>
-      <c r="G85" t="s">
-        <v>81</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
         <v>100</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="I86">
         <v>26</v>
       </c>
-      <c r="D86">
+      <c r="J86">
         <v>146</v>
       </c>
-      <c r="E86">
+      <c r="K86">
         <v>169</v>
       </c>
-      <c r="F86">
+      <c r="L86">
         <v>106</v>
       </c>
-      <c r="G86" t="s">
-        <v>82</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
         <v>103</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="s">
+        <v>83</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I87">
         <v>29</v>
       </c>
-      <c r="D87">
+      <c r="J87">
         <v>161</v>
       </c>
-      <c r="E87">
+      <c r="K87">
         <v>208</v>
       </c>
-      <c r="F87">
+      <c r="L87">
         <v>129</v>
       </c>
-      <c r="G87" t="s">
-        <v>83</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
         <v>105</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I88">
         <v>31</v>
       </c>
-      <c r="D88">
+      <c r="J88">
         <v>121</v>
       </c>
-      <c r="E88">
+      <c r="K88">
         <v>168</v>
       </c>
-      <c r="F88">
+      <c r="L88">
         <v>159</v>
       </c>
-      <c r="G88" t="s">
-        <v>84</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
         <v>106</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="I89">
         <v>32</v>
       </c>
-      <c r="D89">
+      <c r="J89">
         <v>199</v>
       </c>
-      <c r="E89">
+      <c r="K89">
         <v>161</v>
       </c>
-      <c r="F89">
+      <c r="L89">
         <v>219</v>
       </c>
-      <c r="G89" t="s">
-        <v>85</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
         <v>107</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="s">
+        <v>86</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I90">
         <v>33</v>
       </c>
-      <c r="D90">
+      <c r="J90">
         <v>110</v>
       </c>
-      <c r="E90">
+      <c r="K90">
         <v>162</v>
       </c>
-      <c r="F90">
+      <c r="L90">
         <v>111</v>
       </c>
-      <c r="G90" t="s">
-        <v>86</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
         <v>108</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="s">
+        <v>87</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I91">
         <v>34</v>
       </c>
-      <c r="D91">
+      <c r="J91">
         <v>135</v>
       </c>
-      <c r="E91">
+      <c r="K91">
         <v>145</v>
       </c>
-      <c r="F91">
+      <c r="L91">
         <v>196</v>
       </c>
-      <c r="G91" t="s">
-        <v>87</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
         <v>109</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="s">
+        <v>88</v>
+      </c>
+      <c r="I92">
         <v>1</v>
       </c>
-      <c r="G92" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
         <v>110</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="s">
+        <v>89</v>
+      </c>
+      <c r="I93">
         <v>2</v>
       </c>
-      <c r="G93" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
         <v>111</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="s">
+        <v>90</v>
+      </c>
+      <c r="I94">
         <v>3</v>
       </c>
-      <c r="G94" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
         <v>112</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="s">
+        <v>91</v>
+      </c>
+      <c r="I95">
         <v>4</v>
       </c>
-      <c r="G95" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
         <v>113</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="s">
+        <v>92</v>
+      </c>
+      <c r="I96">
         <v>1</v>
-      </c>
-      <c r="G96" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/MouseAtlas_ROI_ID(已自动还原).xlsx
+++ b/MouseAtlas_ROI_ID(已自动还原).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7875" tabRatio="270"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="7845" tabRatio="270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="323">
   <si>
     <t>A24a</t>
   </si>
@@ -301,14 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Diencephalon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ROI ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,9 +326,6 @@
     <t>Cingulate cortex, area 24b’</t>
   </si>
   <si>
-    <t>Cingulate cortex, area 25</t>
-  </si>
-  <si>
     <t>Cingulate cortex, area 29a</t>
   </si>
   <si>
@@ -346,9 +335,6 @@
     <t>Cingulate cortex, area 29c</t>
   </si>
   <si>
-    <t>Cingulate cortex, area 30</t>
-  </si>
-  <si>
     <t>Cingulate cortex, area 32</t>
   </si>
   <si>
@@ -424,9 +410,6 @@
     <t>Primary auditory area</t>
   </si>
   <si>
-    <t>Secondary auditory cortex, dorsal  area</t>
-  </si>
-  <si>
     <t>Dorsal auditory area</t>
   </si>
   <si>
@@ -482,9 +465,6 @@
     <t>Claustrum,  dorsal part</t>
   </si>
   <si>
-    <t>Dorsal nucleus of the endopiriform</t>
-  </si>
-  <si>
     <t>Endopiriform nucleus, dorsal  part</t>
   </si>
   <si>
@@ -568,9 +548,6 @@
   </si>
   <si>
     <t>Intermediate nucleus of the endopiriform claustrum</t>
-  </si>
-  <si>
-    <t>Insular region, not  subdivided</t>
   </si>
   <si>
     <t>Lateral orbital cortex</t>
@@ -827,285 +804,315 @@
     <t>Primary  visual cortex</t>
   </si>
   <si>
+    <t>Primary visual cortex, monocular  area</t>
+  </si>
+  <si>
+    <t>Secondary visual cortex, mediolateral  area</t>
+  </si>
+  <si>
+    <t>Secondary visual cortex, mediomedial area</t>
+  </si>
+  <si>
+    <t>VISp</t>
+  </si>
+  <si>
+    <t>Primary visual area</t>
+  </si>
+  <si>
+    <t>VISl</t>
+  </si>
+  <si>
+    <t>Lateral visual area</t>
+  </si>
+  <si>
+    <t>VISpm</t>
+  </si>
+  <si>
+    <t>Posteromedial  visual area</t>
+  </si>
+  <si>
+    <t>VISal</t>
+  </si>
+  <si>
+    <t>Anterolateral  visual area</t>
+  </si>
+  <si>
+    <t>VISam</t>
+  </si>
+  <si>
+    <t>Anteromedial  visual area</t>
+  </si>
+  <si>
+    <t>Ventral intermediate entorhinal cortex</t>
+  </si>
+  <si>
+    <t>ENTl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ventral tenia tecta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tenia tecta, ventral part</t>
+  </si>
+  <si>
+    <t>TTv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ventral  orbital cortex</t>
+  </si>
+  <si>
+    <t>Orbital area, ventrolateral part</t>
+  </si>
+  <si>
+    <t>ORBvl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Claustrum,  ventral part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ventral nucleus of the endopiriform claustrum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> EPv</t>
+  </si>
+  <si>
+    <t>Endopiriform nucleus, ventral  part</t>
+  </si>
+  <si>
+    <t>AcbC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accumbens nucleus core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accumbens nucleus shell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nucleus accumbens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amygdalostriatal  transition area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not differentiated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caudoputamen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central amygdaloid nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central amygdala nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extension of the amygdala</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entopeduncular nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gpi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Globus pallidus, internal segment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Globus pallidus</t>
+  </si>
+  <si>
+    <t>GPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Globus pallidus, external segment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nucleus of thw horizontal limb of the diagonal band</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diagonal band nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magna island of Calleja</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>islm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Major island of Calleja</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interstitial nucleus of the posteruir limb of the anterior commissure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fundus of the striatum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accumbens nucleus shell, lateral part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lateral hypothalamus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lateral hypothalamic area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lateral preoptic area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lateral striatal stripe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not differentiated,including into FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medial septal nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Substantia innominata part B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Substantia innominata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bed nucleus of stria terminalis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Olfactory tubercle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nucleus of the vertical limb of the diagonal band</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ventral pallidus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROI ID in combined atlas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary somatosensory cortex, barrel  field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caudate putamen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dorsal nucleus of the endopiriform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insular region, not  subdivided</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diencephalon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cingulate cortex, area 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secondary auditory cortex, dorsal  area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Primary visual cortex, binocular  area</t>
-  </si>
-  <si>
-    <t>Primary visual cortex, monocular  area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Secondary visual cortex, lateral  area</t>
-  </si>
-  <si>
-    <t>Secondary visual cortex, mediolateral  area</t>
-  </si>
-  <si>
-    <t>Secondary visual cortex, mediomedial area</t>
-  </si>
-  <si>
-    <t>VISp</t>
-  </si>
-  <si>
-    <t>Primary visual area</t>
-  </si>
-  <si>
-    <t>VISl</t>
-  </si>
-  <si>
-    <t>Lateral visual area</t>
-  </si>
-  <si>
-    <t>VISpm</t>
-  </si>
-  <si>
-    <t>Posteromedial  visual area</t>
-  </si>
-  <si>
-    <t>VISal</t>
-  </si>
-  <si>
-    <t>Anterolateral  visual area</t>
-  </si>
-  <si>
-    <t>VISam</t>
-  </si>
-  <si>
-    <t>Anteromedial  visual area</t>
-  </si>
-  <si>
-    <t>Ventral intermediate entorhinal cortex</t>
-  </si>
-  <si>
-    <t>ENTl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ventral tenia tecta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tenia tecta, ventral part</t>
-  </si>
-  <si>
-    <t>TTv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ventral  orbital cortex</t>
-  </si>
-  <si>
-    <t>Orbital area, ventrolateral part</t>
-  </si>
-  <si>
-    <t>ORBvl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Claustrum,  ventral part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ventral nucleus of the endopiriform claustrum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> EPv</t>
-  </si>
-  <si>
-    <t>Endopiriform nucleus, ventral  part</t>
-  </si>
-  <si>
-    <t>AcbC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accumbens nucleus core</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accumbens nucleus shell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nucleus accumbens</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amygdalostriatal  transition area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Caudate putamen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not differentiated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Caudoputamen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Central amygdaloid nucleus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CEA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Central amygdala nucleus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extension of the amygdala</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entopeduncular nucleus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gpi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Globus pallidus, internal segment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Globus pallidus</t>
-  </si>
-  <si>
-    <t>GPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Globus pallidus, external segment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nucleus of thw horizontal limb of the diagonal band</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NDB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Diagonal band nucleus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magna island of Calleja</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>islm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Major island of Calleja</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interstitial nucleus of the posteruir limb of the anterior commissure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fundus of the striatum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accumbens nucleus shell, lateral part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lateral hypothalamus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LHA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lateral hypothalamic area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lateral preoptic area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LPO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lateral striatal stripe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not differentiated,including into FS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Medial septal nucleus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Substantia innominata part B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Substantia innominata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bed nucleus of stria terminalis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Olfactory tubercle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nucleus of the vertical limb of the diagonal band</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ventral pallidus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROI ID in combined atlas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cingulate cortex, area 25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1533,14 +1540,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="8" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="52.75" style="7" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
     <col min="6" max="6" width="29.5" style="7" customWidth="1"/>
@@ -1548,38 +1556,32 @@
     <col min="8" max="8" width="24.5" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="2:12">
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.5">
-      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="16.5">
+      <c r="B2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
       <c r="G2" s="11" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1587,13 +1589,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G3" s="10">
         <v>1.67</v>
@@ -1614,10 +1616,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>2</v>
-      </c>
+    <row r="4" spans="2:12">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1625,10 +1624,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G4" s="10">
         <v>0.62</v>
@@ -1649,10 +1648,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>3</v>
-      </c>
+    <row r="5" spans="2:12">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1660,13 +1656,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G5" s="10">
         <v>1.63</v>
@@ -1687,10 +1683,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>4</v>
-      </c>
+    <row r="6" spans="2:12">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1698,10 +1691,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G6" s="10">
         <v>0.59</v>
@@ -1722,10 +1715,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>5</v>
-      </c>
+    <row r="7" spans="2:12">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1733,13 +1723,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>101</v>
+        <v>322</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G7" s="10">
         <v>0.38</v>
@@ -1760,10 +1750,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>6</v>
-      </c>
+    <row r="8" spans="2:12">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1771,13 +1758,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G8" s="10">
         <v>0.56999999999999995</v>
@@ -1798,10 +1785,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>7</v>
-      </c>
+    <row r="9" spans="2:12">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1809,13 +1793,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G9" s="10">
         <v>0.45</v>
@@ -1836,10 +1820,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>8</v>
-      </c>
+    <row r="10" spans="2:12">
       <c r="B10">
         <v>8</v>
       </c>
@@ -1847,13 +1828,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G10" s="10">
         <v>1.76</v>
@@ -1874,10 +1855,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>9</v>
-      </c>
+    <row r="11" spans="2:12">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1885,13 +1863,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>105</v>
+        <v>318</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G11" s="10">
         <v>2.95</v>
@@ -1912,10 +1890,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>10</v>
-      </c>
+    <row r="12" spans="2:12">
       <c r="B12">
         <v>10</v>
       </c>
@@ -1923,13 +1898,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G12" s="10">
         <v>1.67</v>
@@ -1950,10 +1925,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>11</v>
-      </c>
+    <row r="13" spans="2:12">
       <c r="B13">
         <v>11</v>
       </c>
@@ -1961,13 +1933,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G13" s="10">
         <v>0.83</v>
@@ -1988,10 +1960,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>12</v>
-      </c>
+    <row r="14" spans="2:12">
       <c r="B14">
         <v>12</v>
       </c>
@@ -1999,13 +1968,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G14" s="10">
         <v>1.59</v>
@@ -2026,10 +1995,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>13</v>
-      </c>
+    <row r="15" spans="2:12">
       <c r="B15">
         <v>13</v>
       </c>
@@ -2037,13 +2003,13 @@
         <v>12</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>129</v>
+        <v>319</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G15" s="10">
         <v>1.75</v>
@@ -2064,10 +2030,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>14</v>
-      </c>
+    <row r="16" spans="2:12">
       <c r="B16">
         <v>14</v>
       </c>
@@ -2075,13 +2038,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G16" s="10">
         <v>1.74</v>
@@ -2102,10 +2065,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="28.5">
-      <c r="A17">
-        <v>15</v>
-      </c>
+    <row r="17" spans="2:12" ht="28.5">
       <c r="B17">
         <v>16</v>
       </c>
@@ -2113,13 +2073,13 @@
         <v>14</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G17" s="10">
         <v>4.84</v>
@@ -2140,10 +2100,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>16</v>
-      </c>
+    <row r="18" spans="2:12">
       <c r="B18">
         <v>18</v>
       </c>
@@ -2151,13 +2108,13 @@
         <v>15</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G18" s="10">
         <v>0.2</v>
@@ -2178,10 +2135,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
-        <v>17</v>
-      </c>
+    <row r="19" spans="2:12">
       <c r="B19">
         <v>19</v>
       </c>
@@ -2189,13 +2143,13 @@
         <v>16</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G19" s="10">
         <v>0.69</v>
@@ -2216,10 +2170,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>18</v>
-      </c>
+    <row r="20" spans="2:12">
       <c r="B20">
         <v>20</v>
       </c>
@@ -2227,13 +2178,13 @@
         <v>17</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I20">
         <v>20</v>
@@ -2248,10 +2199,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>19</v>
-      </c>
+    <row r="21" spans="2:12">
       <c r="B21">
         <v>21</v>
       </c>
@@ -2259,13 +2207,13 @@
         <v>18</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G21" s="10">
         <v>0.21</v>
@@ -2286,10 +2234,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>20</v>
-      </c>
+    <row r="22" spans="2:12">
       <c r="B22">
         <v>24</v>
       </c>
@@ -2297,13 +2242,13 @@
         <v>19</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G22" s="10">
         <v>1.67</v>
@@ -2324,10 +2269,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
-        <v>21</v>
-      </c>
+    <row r="23" spans="2:12">
       <c r="B23">
         <v>25</v>
       </c>
@@ -2335,13 +2277,13 @@
         <v>20</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G23" s="10">
         <v>3.11</v>
@@ -2362,10 +2304,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>22</v>
-      </c>
+    <row r="24" spans="2:12">
       <c r="B24">
         <v>26</v>
       </c>
@@ -2373,13 +2312,13 @@
         <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G24" s="10">
         <v>0.55000000000000004</v>
@@ -2400,10 +2339,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
-        <v>23</v>
-      </c>
+    <row r="25" spans="2:12">
       <c r="B25">
         <v>27</v>
       </c>
@@ -2411,13 +2347,13 @@
         <v>22</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G25" s="11">
         <v>0.74</v>
@@ -2438,10 +2374,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>24</v>
-      </c>
+    <row r="26" spans="2:12">
       <c r="B26">
         <v>28</v>
       </c>
@@ -2449,13 +2382,13 @@
         <v>23</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G26" s="10">
         <v>0.84</v>
@@ -2476,10 +2409,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>25</v>
-      </c>
+    <row r="27" spans="2:12">
       <c r="B27">
         <v>29</v>
       </c>
@@ -2487,13 +2417,13 @@
         <v>24</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G27" s="10">
         <v>2.85</v>
@@ -2514,10 +2444,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28">
-        <v>26</v>
-      </c>
+    <row r="28" spans="2:12">
       <c r="B28">
         <v>31</v>
       </c>
@@ -2525,13 +2452,13 @@
         <v>25</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G28" s="10">
         <v>0.65</v>
@@ -2552,10 +2479,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>27</v>
-      </c>
+    <row r="29" spans="2:12">
       <c r="B29">
         <v>32</v>
       </c>
@@ -2563,13 +2487,13 @@
         <v>26</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G29" s="10">
         <v>4.54</v>
@@ -2590,10 +2514,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
-        <v>28</v>
-      </c>
+    <row r="30" spans="2:12">
       <c r="B30">
         <v>33</v>
       </c>
@@ -2601,10 +2522,10 @@
         <v>27</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I30">
         <v>33</v>
@@ -2619,10 +2540,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
-        <v>29</v>
-      </c>
+    <row r="31" spans="2:12">
       <c r="B31">
         <v>34</v>
       </c>
@@ -2630,10 +2548,10 @@
         <v>28</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>174</v>
+        <v>316</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I31">
         <v>34</v>
@@ -2648,10 +2566,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
-        <v>30</v>
-      </c>
+    <row r="32" spans="2:12">
       <c r="B32">
         <v>35</v>
       </c>
@@ -2659,13 +2574,13 @@
         <v>29</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G32" s="10">
         <v>2.44</v>
@@ -2686,10 +2601,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
-        <v>31</v>
-      </c>
+    <row r="33" spans="2:12">
       <c r="B33">
         <v>37</v>
       </c>
@@ -2697,13 +2609,13 @@
         <v>30</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G33" s="10">
         <v>0.3</v>
@@ -2724,10 +2636,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
-        <v>32</v>
-      </c>
+    <row r="34" spans="2:12">
       <c r="B34">
         <v>38</v>
       </c>
@@ -2735,13 +2644,13 @@
         <v>31</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G34" s="10">
         <v>6.68</v>
@@ -2762,10 +2671,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
-        <v>33</v>
-      </c>
+    <row r="35" spans="2:12">
       <c r="B35">
         <v>39</v>
       </c>
@@ -2773,13 +2679,13 @@
         <v>32</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G35" s="10">
         <v>6.52</v>
@@ -2800,10 +2706,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="28.5">
-      <c r="A36">
-        <v>34</v>
-      </c>
+    <row r="36" spans="2:12" ht="28.5">
       <c r="B36">
         <v>40</v>
       </c>
@@ -2811,13 +2714,13 @@
         <v>33</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G36" s="10">
         <v>0.57999999999999996</v>
@@ -2838,10 +2741,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37">
-        <v>35</v>
-      </c>
+    <row r="37" spans="2:12">
       <c r="B37">
         <v>41</v>
       </c>
@@ -2849,13 +2749,13 @@
         <v>34</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G37" s="10">
         <v>1.37</v>
@@ -2876,10 +2776,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38">
-        <v>36</v>
-      </c>
+    <row r="38" spans="2:12">
       <c r="B38">
         <v>42</v>
       </c>
@@ -2887,13 +2784,13 @@
         <v>35</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G38" s="10">
         <v>0.46</v>
@@ -2914,10 +2811,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39">
-        <v>37</v>
-      </c>
+    <row r="39" spans="2:12">
       <c r="B39">
         <v>43</v>
       </c>
@@ -2925,13 +2819,13 @@
         <v>36</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G39" s="11">
         <v>1.42</v>
@@ -2952,10 +2846,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40">
-        <v>38</v>
-      </c>
+    <row r="40" spans="2:12">
       <c r="B40">
         <v>44</v>
       </c>
@@ -2963,13 +2854,13 @@
         <v>37</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G40" s="10">
         <v>8.92</v>
@@ -2990,10 +2881,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28.5">
-      <c r="A41">
-        <v>39</v>
-      </c>
+    <row r="41" spans="2:12" ht="28.5">
       <c r="B41">
         <v>45</v>
       </c>
@@ -3001,13 +2889,13 @@
         <v>38</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G41" s="10">
         <v>0.75</v>
@@ -3028,10 +2916,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="28.5">
-      <c r="A42">
-        <v>40</v>
-      </c>
+    <row r="42" spans="2:12" ht="28.5">
       <c r="B42">
         <v>46</v>
       </c>
@@ -3039,13 +2924,13 @@
         <v>39</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G42" s="10">
         <v>1.08</v>
@@ -3066,10 +2951,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43">
-        <v>41</v>
-      </c>
+    <row r="43" spans="2:12">
       <c r="B43">
         <v>47</v>
       </c>
@@ -3077,13 +2959,13 @@
         <v>40</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G43" s="11">
         <v>0.64</v>
@@ -3104,10 +2986,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44">
-        <v>42</v>
-      </c>
+    <row r="44" spans="2:12">
       <c r="B44">
         <v>48</v>
       </c>
@@ -3115,13 +2994,13 @@
         <v>41</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G44" s="10">
         <v>2.4500000000000002</v>
@@ -3142,10 +3021,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45">
-        <v>43</v>
-      </c>
+    <row r="45" spans="2:12">
       <c r="B45">
         <v>49</v>
       </c>
@@ -3153,13 +3029,13 @@
         <v>42</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G45" s="11">
         <v>0.27</v>
@@ -3180,10 +3056,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
-      <c r="A46">
-        <v>44</v>
-      </c>
+    <row r="46" spans="2:12">
       <c r="B46">
         <v>50</v>
       </c>
@@ -3191,13 +3064,13 @@
         <v>43</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G46" s="10">
         <v>0.12</v>
@@ -3218,10 +3091,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47">
-        <v>45</v>
-      </c>
+    <row r="47" spans="2:12">
       <c r="B47">
         <v>51</v>
       </c>
@@ -3229,13 +3099,13 @@
         <v>44</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G47" s="10">
         <v>0.34</v>
@@ -3256,10 +3126,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
-      <c r="A48">
-        <v>46</v>
-      </c>
+    <row r="48" spans="2:12">
       <c r="B48">
         <v>52</v>
       </c>
@@ -3267,13 +3134,13 @@
         <v>45</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G48" s="10">
         <v>3.82</v>
@@ -3294,10 +3161,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="28.5">
-      <c r="A49">
-        <v>47</v>
-      </c>
+    <row r="49" spans="2:12" ht="28.5">
       <c r="B49">
         <v>53</v>
       </c>
@@ -3305,13 +3169,13 @@
         <v>46</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>215</v>
+        <v>313</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G49" s="10">
         <v>9.11</v>
@@ -3332,10 +3196,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50">
-        <v>48</v>
-      </c>
+    <row r="50" spans="2:12">
       <c r="B50">
         <v>54</v>
       </c>
@@ -3343,13 +3204,13 @@
         <v>47</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G50" s="10">
         <v>0.38</v>
@@ -3370,10 +3231,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28.5">
-      <c r="A51">
-        <v>49</v>
-      </c>
+    <row r="51" spans="2:12" ht="28.5">
       <c r="B51">
         <v>55</v>
       </c>
@@ -3381,13 +3239,13 @@
         <v>48</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G51" s="10">
         <v>3.96</v>
@@ -3408,10 +3266,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="28.5">
-      <c r="A52">
-        <v>50</v>
-      </c>
+    <row r="52" spans="2:12" ht="28.5">
       <c r="B52">
         <v>56</v>
       </c>
@@ -3419,13 +3274,13 @@
         <v>49</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G52" s="10">
         <v>2.79</v>
@@ -3446,10 +3301,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="A53">
-        <v>51</v>
-      </c>
+    <row r="53" spans="2:12">
       <c r="B53">
         <v>57</v>
       </c>
@@ -3457,13 +3309,13 @@
         <v>50</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G53" s="10">
         <v>0.51</v>
@@ -3484,10 +3336,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
-      <c r="A54">
-        <v>52</v>
-      </c>
+    <row r="54" spans="2:12">
       <c r="B54">
         <v>58</v>
       </c>
@@ -3495,13 +3344,13 @@
         <v>51</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G54" s="10">
         <v>0.24</v>
@@ -3522,10 +3371,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
-      <c r="A55">
-        <v>53</v>
-      </c>
+    <row r="55" spans="2:12">
       <c r="B55">
         <v>59</v>
       </c>
@@ -3533,13 +3379,13 @@
         <v>52</v>
       </c>
       <c r="D55" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>228</v>
-      </c>
       <c r="F55" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G55" s="10">
         <v>0.71</v>
@@ -3560,10 +3406,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
-      <c r="A56">
-        <v>54</v>
-      </c>
+    <row r="56" spans="2:12">
       <c r="B56">
         <v>60</v>
       </c>
@@ -3571,13 +3414,13 @@
         <v>53</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G56" s="10">
         <v>4.58</v>
@@ -3598,10 +3441,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
-      <c r="A57">
-        <v>55</v>
-      </c>
+    <row r="57" spans="2:12">
       <c r="B57">
         <v>61</v>
       </c>
@@ -3609,13 +3449,13 @@
         <v>54</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G57" s="10">
         <v>6.11</v>
@@ -3636,10 +3476,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="A58">
-        <v>56</v>
-      </c>
+    <row r="58" spans="2:12">
       <c r="B58">
         <v>62</v>
       </c>
@@ -3647,13 +3484,13 @@
         <v>55</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G58" s="11">
         <v>2.08</v>
@@ -3674,10 +3511,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="A59">
-        <v>57</v>
-      </c>
+    <row r="59" spans="2:12">
       <c r="B59">
         <v>63</v>
       </c>
@@ -3685,13 +3519,13 @@
         <v>56</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G59" s="10">
         <v>2.84</v>
@@ -3712,10 +3546,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
-      <c r="A60">
-        <v>58</v>
-      </c>
+    <row r="60" spans="2:12">
       <c r="B60">
         <v>64</v>
       </c>
@@ -3723,13 +3554,13 @@
         <v>57</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G60" s="10">
         <v>2.63</v>
@@ -3750,10 +3581,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61">
-        <v>59</v>
-      </c>
+    <row r="61" spans="2:12">
       <c r="B61">
         <v>65</v>
       </c>
@@ -3761,13 +3589,13 @@
         <v>58</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G61" s="10">
         <v>2.35</v>
@@ -3788,10 +3616,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="A62">
-        <v>60</v>
-      </c>
+    <row r="62" spans="2:12">
       <c r="B62">
         <v>66</v>
       </c>
@@ -3799,13 +3624,13 @@
         <v>59</v>
       </c>
       <c r="D62" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="G62" s="10">
         <v>2.16</v>
@@ -3826,10 +3651,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
-      <c r="A63">
-        <v>61</v>
-      </c>
+    <row r="63" spans="2:12">
       <c r="B63">
         <v>67</v>
       </c>
@@ -3837,13 +3659,13 @@
         <v>60</v>
       </c>
       <c r="D63" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>258</v>
-      </c>
       <c r="F63" s="6" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G63" s="10">
         <v>3.02</v>
@@ -3864,10 +3686,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
-      <c r="A64">
-        <v>62</v>
-      </c>
+    <row r="64" spans="2:12">
       <c r="B64">
         <v>68</v>
       </c>
@@ -3875,13 +3694,13 @@
         <v>61</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G64" s="10">
         <v>1.1299999999999999</v>
@@ -3902,10 +3721,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
-      <c r="A65">
-        <v>63</v>
-      </c>
+    <row r="65" spans="2:12">
       <c r="B65">
         <v>69</v>
       </c>
@@ -3913,13 +3729,13 @@
         <v>62</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G65" s="10">
         <v>1.93</v>
@@ -3940,10 +3756,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
-      <c r="A66">
-        <v>64</v>
-      </c>
+    <row r="66" spans="2:12">
       <c r="B66">
         <v>70</v>
       </c>
@@ -3951,13 +3764,13 @@
         <v>63</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G66" s="10">
         <v>0.45</v>
@@ -3978,10 +3791,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
-      <c r="A67">
-        <v>65</v>
-      </c>
+    <row r="67" spans="2:12">
       <c r="B67">
         <v>71</v>
       </c>
@@ -3989,13 +3799,13 @@
         <v>64</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G67" s="10">
         <v>0.37</v>
@@ -4016,10 +3826,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
-      <c r="A68">
-        <v>66</v>
-      </c>
+    <row r="68" spans="2:12">
       <c r="B68">
         <v>72</v>
       </c>
@@ -4027,13 +3834,13 @@
         <v>65</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G68" s="10">
         <v>0.87</v>
@@ -4054,10 +3861,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
-      <c r="A69">
-        <v>67</v>
-      </c>
+    <row r="69" spans="2:12">
       <c r="B69">
         <v>73</v>
       </c>
@@ -4065,13 +3869,13 @@
         <v>66</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G69" s="10">
         <v>1.1599999999999999</v>
@@ -4092,10 +3896,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
-      <c r="A70">
-        <v>68</v>
-      </c>
+    <row r="70" spans="2:12">
       <c r="B70">
         <v>74</v>
       </c>
@@ -4103,13 +3904,13 @@
         <v>67</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G70" s="10">
         <v>0.15</v>
@@ -4130,24 +3931,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
-      <c r="A71">
-        <v>69</v>
-      </c>
+    <row r="71" spans="2:12">
       <c r="B71">
         <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -4162,10 +3960,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
-      <c r="A72">
-        <v>70</v>
-      </c>
+    <row r="72" spans="2:12">
       <c r="B72">
         <v>77</v>
       </c>
@@ -4173,13 +3968,13 @@
         <v>68</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I72">
         <v>3</v>
@@ -4194,10 +3989,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
-      <c r="A73">
-        <v>71</v>
-      </c>
+    <row r="73" spans="2:12">
       <c r="B73">
         <v>79</v>
       </c>
@@ -4205,13 +3997,13 @@
         <v>69</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="I73">
         <v>5</v>
@@ -4226,10 +4018,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
-      <c r="A74">
-        <v>72</v>
-      </c>
+    <row r="74" spans="2:12">
       <c r="B74">
         <v>82</v>
       </c>
@@ -4237,13 +4026,13 @@
         <v>70</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="I74">
         <v>8</v>
@@ -4258,10 +4047,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
-      <c r="A75">
-        <v>73</v>
-      </c>
+    <row r="75" spans="2:12">
       <c r="B75">
         <v>83</v>
       </c>
@@ -4269,13 +4055,13 @@
         <v>71</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="I75">
         <v>9</v>
@@ -4290,10 +4076,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
-      <c r="A76">
-        <v>74</v>
-      </c>
+    <row r="76" spans="2:12">
       <c r="B76">
         <v>84</v>
       </c>
@@ -4301,10 +4084,10 @@
         <v>72</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="I76">
         <v>10</v>
@@ -4319,10 +4102,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
-      <c r="A77">
-        <v>75</v>
-      </c>
+    <row r="77" spans="2:12">
       <c r="B77">
         <v>85</v>
       </c>
@@ -4330,13 +4110,13 @@
         <v>73</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="I77">
         <v>11</v>
@@ -4351,10 +4131,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
-      <c r="A78">
-        <v>76</v>
-      </c>
+    <row r="78" spans="2:12">
       <c r="B78">
         <v>88</v>
       </c>
@@ -4362,13 +4139,13 @@
         <v>74</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I78">
         <v>14</v>
@@ -4383,10 +4160,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
-      <c r="A79">
-        <v>77</v>
-      </c>
+    <row r="79" spans="2:12">
       <c r="B79">
         <v>89</v>
       </c>
@@ -4394,13 +4168,13 @@
         <v>75</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I79">
         <v>15</v>
@@ -4415,10 +4189,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
-      <c r="A80">
-        <v>78</v>
-      </c>
+    <row r="80" spans="2:12">
       <c r="B80">
         <v>91</v>
       </c>
@@ -4426,13 +4197,13 @@
         <v>76</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I80">
         <v>17</v>
@@ -4447,10 +4218,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
-      <c r="A81">
-        <v>79</v>
-      </c>
+    <row r="81" spans="2:12">
       <c r="B81">
         <v>92</v>
       </c>
@@ -4458,13 +4226,13 @@
         <v>77</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="I81">
         <v>18</v>
@@ -4479,10 +4247,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
-      <c r="A82">
-        <v>80</v>
-      </c>
+    <row r="82" spans="2:12">
       <c r="B82">
         <v>93</v>
       </c>
@@ -4490,13 +4255,13 @@
         <v>78</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I82">
         <v>19</v>
@@ -4511,10 +4276,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
-      <c r="A83">
-        <v>81</v>
-      </c>
+    <row r="83" spans="2:12">
       <c r="B83">
         <v>95</v>
       </c>
@@ -4522,13 +4284,13 @@
         <v>79</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="I83">
         <v>21</v>
@@ -4543,10 +4305,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
-      <c r="A84">
-        <v>82</v>
-      </c>
+    <row r="84" spans="2:12">
       <c r="B84">
         <v>96</v>
       </c>
@@ -4554,13 +4313,13 @@
         <v>80</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="I84">
         <v>22</v>
@@ -4575,10 +4334,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
-      <c r="A85">
-        <v>83</v>
-      </c>
+    <row r="85" spans="2:12">
       <c r="B85">
         <v>97</v>
       </c>
@@ -4586,13 +4342,13 @@
         <v>81</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="I85">
         <v>23</v>
@@ -4607,10 +4363,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
-      <c r="A86">
-        <v>84</v>
-      </c>
+    <row r="86" spans="2:12">
       <c r="B86">
         <v>100</v>
       </c>
@@ -4618,13 +4371,13 @@
         <v>82</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="I86">
         <v>26</v>
@@ -4639,10 +4392,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
-      <c r="A87">
-        <v>85</v>
-      </c>
+    <row r="87" spans="2:12">
       <c r="B87">
         <v>103</v>
       </c>
@@ -4650,13 +4400,13 @@
         <v>83</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="I87">
         <v>29</v>
@@ -4671,10 +4421,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
-      <c r="A88">
-        <v>86</v>
-      </c>
+    <row r="88" spans="2:12">
       <c r="B88">
         <v>105</v>
       </c>
@@ -4682,13 +4429,13 @@
         <v>84</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="I88">
         <v>31</v>
@@ -4703,10 +4450,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
-      <c r="A89">
-        <v>87</v>
-      </c>
+    <row r="89" spans="2:12">
       <c r="B89">
         <v>106</v>
       </c>
@@ -4714,13 +4458,13 @@
         <v>85</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="I89">
         <v>32</v>
@@ -4735,10 +4479,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
-      <c r="A90">
-        <v>88</v>
-      </c>
+    <row r="90" spans="2:12">
       <c r="B90">
         <v>107</v>
       </c>
@@ -4746,13 +4487,13 @@
         <v>86</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I90">
         <v>33</v>
@@ -4767,10 +4508,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
-      <c r="A91">
-        <v>89</v>
-      </c>
+    <row r="91" spans="2:12">
       <c r="B91">
         <v>108</v>
       </c>
@@ -4778,13 +4516,13 @@
         <v>87</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="I91">
         <v>34</v>
@@ -4799,10 +4537,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
-      <c r="A92">
-        <v>90</v>
-      </c>
+    <row r="92" spans="2:12">
       <c r="B92">
         <v>109</v>
       </c>
@@ -4813,10 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
-      <c r="A93">
-        <v>91</v>
-      </c>
+    <row r="93" spans="2:12">
       <c r="B93">
         <v>110</v>
       </c>
@@ -4827,10 +4559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
-      <c r="A94">
-        <v>92</v>
-      </c>
+    <row r="94" spans="2:12">
       <c r="B94">
         <v>111</v>
       </c>
@@ -4841,10 +4570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
-      <c r="A95">
-        <v>93</v>
-      </c>
+    <row r="95" spans="2:12">
       <c r="B95">
         <v>112</v>
       </c>
@@ -4855,15 +4581,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
-      <c r="A96">
-        <v>94</v>
-      </c>
+    <row r="96" spans="2:12">
       <c r="B96">
         <v>113</v>
       </c>
       <c r="C96" t="s">
-        <v>92</v>
+        <v>317</v>
       </c>
       <c r="I96">
         <v>1</v>
